--- a/teaching/traditional_assets/database/data/turkey/turkey_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ32"/>
+  <dimension ref="A1:AQ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.08400000000000001</v>
+        <v>0.2085</v>
       </c>
       <c r="E2">
-        <v>0.326</v>
+        <v>0.242</v>
       </c>
       <c r="G2">
-        <v>0.004712183447208019</v>
+        <v>0.01383648067355857</v>
       </c>
       <c r="H2">
-        <v>0.004339349028993421</v>
+        <v>0.01342504504081256</v>
       </c>
       <c r="I2">
-        <v>0.01290609114270052</v>
+        <v>0.028599759260327</v>
       </c>
       <c r="J2">
-        <v>0.012404996794739</v>
+        <v>0.02636975230553581</v>
       </c>
       <c r="K2">
-        <v>138.271</v>
+        <v>81.093</v>
       </c>
       <c r="L2">
-        <v>0.07302009609199822</v>
+        <v>0.05772413454372287</v>
       </c>
       <c r="M2">
-        <v>10.301</v>
+        <v>11.879</v>
       </c>
       <c r="N2">
-        <v>0.01048149127983882</v>
+        <v>0.006176459883427704</v>
       </c>
       <c r="O2">
-        <v>0.07449862950293264</v>
+        <v>0.1464861332050855</v>
       </c>
       <c r="P2">
-        <v>8.612</v>
+        <v>9.680999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.008762897087852824</v>
+        <v>0.00503361462509164</v>
       </c>
       <c r="R2">
-        <v>0.06228348677596893</v>
+        <v>0.1193814509267138</v>
       </c>
       <c r="S2">
-        <v>1.689</v>
+        <v>2.198</v>
       </c>
       <c r="T2">
-        <v>0.1639646636248908</v>
+        <v>0.1850324101355333</v>
       </c>
       <c r="U2">
-        <v>83.11499999999999</v>
+        <v>101.526</v>
       </c>
       <c r="V2">
-        <v>0.08457131809764137</v>
+        <v>0.05278822006270571</v>
       </c>
       <c r="W2">
-        <v>0.1120666382495027</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="X2">
-        <v>0.07215934978927882</v>
+        <v>0.06844271544973414</v>
       </c>
       <c r="Y2">
-        <v>0.03990728846022387</v>
+        <v>0.04320776998715907</v>
       </c>
       <c r="Z2">
-        <v>2.405707323704247</v>
+        <v>1.341315004038734</v>
       </c>
       <c r="AA2">
-        <v>0.02105033601114293</v>
+        <v>0.008430804863925882</v>
       </c>
       <c r="AB2">
-        <v>0.07215609119384238</v>
+        <v>0.06843772558521713</v>
       </c>
       <c r="AC2">
-        <v>-0.05536663389915329</v>
+        <v>-0.06747203308204051</v>
       </c>
       <c r="AD2">
-        <v>387.246</v>
+        <v>348.365</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>387.246</v>
+        <v>348.365</v>
       </c>
       <c r="AG2">
-        <v>304.131</v>
+        <v>246.839</v>
       </c>
       <c r="AH2">
-        <v>0.2826559495951171</v>
+        <v>0.1533543020775785</v>
       </c>
       <c r="AI2">
-        <v>0.3318837996181047</v>
+        <v>0.3456362021837592</v>
       </c>
       <c r="AJ2">
-        <v>0.2363263660035542</v>
+        <v>0.1137449777868301</v>
       </c>
       <c r="AK2">
-        <v>0.2806420982986941</v>
+        <v>0.2723383081283672</v>
       </c>
       <c r="AL2">
-        <v>66.928</v>
+        <v>31.952</v>
       </c>
       <c r="AM2">
-        <v>46.68299999999999</v>
+        <v>21.1</v>
       </c>
       <c r="AN2">
-        <v>18.82668092760951</v>
+        <v>8.572817206417955</v>
       </c>
       <c r="AO2">
-        <v>0.3651535978962467</v>
+        <v>1.257448673009514</v>
       </c>
       <c r="AP2">
-        <v>14.78589138995576</v>
+        <v>6.074392164583129</v>
       </c>
       <c r="AQ2">
-        <v>0.5235096287727867</v>
+        <v>1.904170616113744</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hub Girisim Sermayesi Yatirim Ortakligi A.S. (IBSE:HUBVC)</t>
+          <t>Güler Yatirim Holding A.S. (IBSE:GLRYH)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,37 +725,37 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.329</v>
+        <v>1.082</v>
       </c>
       <c r="E3">
-        <v>0.904</v>
+        <v>0.635</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.01551274787535411</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01223796033994334</v>
       </c>
       <c r="I3">
-        <v>0.4399066511085181</v>
+        <v>0.09178470254957506</v>
       </c>
       <c r="J3">
-        <v>0.4399066511085181</v>
+        <v>0.07209368206074181</v>
       </c>
       <c r="K3">
-        <v>3.9</v>
+        <v>6.41</v>
       </c>
       <c r="L3">
-        <v>0.455075845974329</v>
+        <v>0.03631728045325779</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.921</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02097949886104784</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.1436817472698908</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -767,67 +767,79 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.921</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.052</v>
+        <v>2.65</v>
       </c>
       <c r="V3">
-        <v>0.001113490364025696</v>
+        <v>0.06036446469248292</v>
       </c>
       <c r="W3">
-        <v>1.150442477876106</v>
+        <v>0.747086247086247</v>
       </c>
       <c r="X3">
-        <v>0.07214912693803832</v>
+        <v>0.0812089007028354</v>
       </c>
       <c r="Y3">
-        <v>1.078293350938068</v>
+        <v>0.6658773463834117</v>
       </c>
       <c r="Z3">
-        <v>3.062902072909221</v>
+        <v>15.75049080849545</v>
       </c>
       <c r="AA3">
-        <v>1.347390993566833</v>
+        <v>1.135510876648307</v>
       </c>
       <c r="AB3">
-        <v>0.07214912693803832</v>
+        <v>0.07971424080596716</v>
       </c>
       <c r="AC3">
-        <v>1.275241866628795</v>
+        <v>1.05579663584234</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="AG3">
-        <v>-0.052</v>
+        <v>11.05</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.2378472222222222</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.3193473193473194</v>
       </c>
       <c r="AJ3">
-        <v>-0.001114731606928486</v>
+        <v>0.2010919017288444</v>
       </c>
       <c r="AK3">
-        <v>-0.006437236939836592</v>
+        <v>0.2745341614906832</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AM3">
-        <v>-0.167</v>
+        <v>-1.44</v>
+      </c>
+      <c r="AN3">
+        <v>0.8353658536585367</v>
+      </c>
+      <c r="AO3">
+        <v>12</v>
+      </c>
+      <c r="AP3">
+        <v>0.6737804878048781</v>
       </c>
       <c r="AQ3">
-        <v>-22.5748502994012</v>
+        <v>-11.25</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arti Yatirim Holding A.S. (IBSE:ARTI)</t>
+          <t>Hedef Girisim Sermayesi Yatirim Ortakligi A.S. (IBSE:HDFGS)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,25 +859,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.344</v>
+        <v>0.369</v>
+      </c>
+      <c r="E4">
+        <v>0.852</v>
       </c>
       <c r="G4">
-        <v>0.01401273885350318</v>
+        <v>0.3033783783783784</v>
       </c>
       <c r="H4">
-        <v>0.01401273885350318</v>
+        <v>0.3033783783783784</v>
       </c>
       <c r="I4">
-        <v>-1.885350318471337</v>
+        <v>0.9594594594594593</v>
       </c>
       <c r="J4">
-        <v>-1.885350318471337</v>
+        <v>0.9594594594594593</v>
       </c>
       <c r="K4">
-        <v>-2.52</v>
+        <v>14.4</v>
       </c>
       <c r="L4">
-        <v>-1.605095541401274</v>
+        <v>0.9729729729729729</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -874,7 +889,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -883,79 +898,79 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.003</v>
+        <v>5.75</v>
       </c>
       <c r="V4">
-        <v>0.002205882352941176</v>
+        <v>0.07315521628498728</v>
       </c>
       <c r="W4">
-        <v>-0.6</v>
+        <v>0.7128712871287129</v>
       </c>
       <c r="X4">
-        <v>0.1125384095009214</v>
+        <v>0.06847828885166957</v>
       </c>
       <c r="Y4">
-        <v>-0.7125384095009213</v>
+        <v>0.6443929982770433</v>
       </c>
       <c r="Z4">
-        <v>-0.6071152358855376</v>
+        <v>0.8530259365994238</v>
       </c>
       <c r="AA4">
-        <v>1.1446249033256</v>
+        <v>0.8184438040345822</v>
       </c>
       <c r="AB4">
-        <v>0.08606692032347607</v>
+        <v>0.06846863907384651</v>
       </c>
       <c r="AC4">
-        <v>1.058557983002123</v>
+        <v>0.7499751649607357</v>
       </c>
       <c r="AD4">
-        <v>1.33</v>
+        <v>0.142</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.33</v>
+        <v>0.142</v>
       </c>
       <c r="AG4">
-        <v>1.327</v>
+        <v>-5.608</v>
       </c>
       <c r="AH4">
-        <v>0.4944237918215613</v>
+        <v>0.001803357801427447</v>
       </c>
       <c r="AI4">
-        <v>0.3463541666666667</v>
+        <v>0.004839479244768591</v>
       </c>
       <c r="AJ4">
-        <v>0.4938593226646818</v>
+        <v>-0.07683033757124069</v>
       </c>
       <c r="AK4">
-        <v>0.3458431065936931</v>
+        <v>-0.2377076975245846</v>
       </c>
       <c r="AL4">
-        <v>0.002</v>
+        <v>0.026</v>
       </c>
       <c r="AM4">
-        <v>-0.529</v>
+        <v>-0.302</v>
       </c>
       <c r="AN4">
-        <v>-0.4493243243243243</v>
+        <v>0.01</v>
       </c>
       <c r="AO4">
-        <v>-1480</v>
+        <v>546.1538461538462</v>
       </c>
       <c r="AP4">
-        <v>-0.4483108108108109</v>
+        <v>-0.3949295774647887</v>
       </c>
       <c r="AQ4">
-        <v>5.595463137996219</v>
+        <v>-47.01986754966887</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +981,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Egeli &amp; Co Yatirim Holding AS (IBSE:EGCYH)</t>
+          <t>Euro Trend Yatirim Ortakligi A.S. (IBSE:ETYAT)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,103 +990,115 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.127</v>
+        <v>0.357</v>
+      </c>
+      <c r="E5">
+        <v>0.215</v>
       </c>
       <c r="G5">
-        <v>0.008013937282229966</v>
+        <v>0.008158508158508158</v>
       </c>
       <c r="H5">
-        <v>0.008013937282229966</v>
+        <v>0.008158508158508158</v>
       </c>
       <c r="I5">
-        <v>-0.006968641114982578</v>
+        <v>0.005693473193473193</v>
       </c>
       <c r="J5">
-        <v>-0.006968641114982578</v>
+        <v>0.005693473193473193</v>
       </c>
       <c r="K5">
-        <v>0.068</v>
+        <v>0.977</v>
       </c>
       <c r="L5">
-        <v>0.02369337979094077</v>
+        <v>0.005693473193473193</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>0.466</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.04804123711340206</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.4769703172978506</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>0.207</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.02134020618556701</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.2118730808597748</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.259</v>
+      </c>
+      <c r="T5">
+        <v>0.555793991416309</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.331958762886598</v>
       </c>
       <c r="W5">
-        <v>-1.283018867924528</v>
+        <v>0.1795955882352941</v>
       </c>
       <c r="X5">
-        <v>0.07285801301062669</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="Y5">
-        <v>-1.355876880935155</v>
+        <v>0.1111914270794213</v>
       </c>
       <c r="Z5">
-        <v>-84.41176470588235</v>
+        <v>77.64705882352939</v>
       </c>
       <c r="AA5">
-        <v>0.5882352941176471</v>
+        <v>0.4420814479638008</v>
       </c>
       <c r="AB5">
-        <v>0.07262413721322578</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="AC5">
-        <v>0.5156111569044213</v>
+        <v>0.373677286807928</v>
       </c>
       <c r="AD5">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.023</v>
+        <v>-3.22</v>
       </c>
       <c r="AH5">
-        <v>0.01687454145267792</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.1869918699186992</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.01687454145267792</v>
+        <v>-0.4969135802469137</v>
       </c>
       <c r="AK5">
-        <v>0.1869918699186992</v>
+        <v>-2.104575163398693</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>-3.289070480081716</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1109,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Is Yatirim Ortakligi A.S. (IBSE:ISYAT)</t>
+          <t>Euro Menkul Kiymet Yatirim Ortakligi Anonim Sirketi (IBSE:EUYO)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1091,121 +1118,115 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.147</v>
+        <v>0.3720000000000001</v>
       </c>
       <c r="E6">
-        <v>0.395</v>
+        <v>0.219</v>
       </c>
       <c r="G6">
-        <v>0.2250950570342205</v>
+        <v>0.008086096567771959</v>
       </c>
       <c r="H6">
-        <v>0.2250950570342205</v>
+        <v>0.008086096567771959</v>
       </c>
       <c r="I6">
-        <v>0.4524714828897338</v>
+        <v>0.005660267597440372</v>
       </c>
       <c r="J6">
-        <v>0.4524714828897338</v>
+        <v>0.005660267597440372</v>
       </c>
       <c r="K6">
-        <v>11.8</v>
+        <v>0.956</v>
       </c>
       <c r="L6">
-        <v>0.4486692015209126</v>
+        <v>0.005561372891215823</v>
       </c>
       <c r="M6">
-        <v>5.32</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="N6">
-        <v>0.1070422535211268</v>
+        <v>0.04652892561983471</v>
       </c>
       <c r="O6">
-        <v>0.4508474576271186</v>
+        <v>0.5889121338912133</v>
       </c>
       <c r="P6">
-        <v>5.32</v>
+        <v>0.207</v>
       </c>
       <c r="Q6">
-        <v>0.1070422535211268</v>
+        <v>0.01710743801652893</v>
       </c>
       <c r="R6">
-        <v>0.4508474576271186</v>
+        <v>0.2165271966527197</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.356</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.6323268206039077</v>
       </c>
       <c r="U6">
-        <v>14.8</v>
+        <v>3.24</v>
       </c>
       <c r="V6">
-        <v>0.2977867203219316</v>
+        <v>0.2677685950413223</v>
       </c>
       <c r="W6">
-        <v>0.3113456464379947</v>
+        <v>0.1722522522522522</v>
       </c>
       <c r="X6">
-        <v>0.07226878983416871</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="Y6">
-        <v>0.239076856603826</v>
+        <v>0.1038480910963794</v>
       </c>
       <c r="Z6">
-        <v>0.8550065019505853</v>
+        <v>74.73913043478262</v>
       </c>
       <c r="AA6">
-        <v>0.3868660598179454</v>
+        <v>0.4230434782608696</v>
       </c>
       <c r="AB6">
-        <v>0.0722083676723743</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="AC6">
-        <v>0.3146576921455711</v>
+        <v>0.3546393171049967</v>
       </c>
       <c r="AD6">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-14.656</v>
+        <v>-3.24</v>
       </c>
       <c r="AH6">
-        <v>0.002889013722815183</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.003060964203724173</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.4182170985047369</v>
+        <v>-0.3656884875846502</v>
       </c>
       <c r="AK6">
-        <v>-0.4545341769011289</v>
+        <v>-2.063694267515924</v>
       </c>
       <c r="AL6">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01210084033613445</v>
-      </c>
-      <c r="AO6">
-        <v>495.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>-1.231596638655462</v>
-      </c>
-      <c r="AQ6">
-        <v>495.8333333333333</v>
+        <v>-3.326488706365503</v>
       </c>
     </row>
     <row r="7">
@@ -1225,79 +1246,79 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.787</v>
+        <v>0.381</v>
       </c>
       <c r="E7">
-        <v>0.458</v>
+        <v>0.226</v>
       </c>
       <c r="G7">
-        <v>0.0003566176470588236</v>
+        <v>0.0078125</v>
       </c>
       <c r="H7">
-        <v>0.0003566176470588236</v>
+        <v>0.0078125</v>
       </c>
       <c r="I7">
-        <v>0.002169117647058824</v>
+        <v>0.004655172413793104</v>
       </c>
       <c r="J7">
-        <v>0.002169117647058824</v>
+        <v>0.004655172413793104</v>
       </c>
       <c r="K7">
-        <v>1.18</v>
+        <v>0.864</v>
       </c>
       <c r="L7">
-        <v>0.002169117647058824</v>
+        <v>0.004655172413793104</v>
       </c>
       <c r="M7">
-        <v>0.035</v>
+        <v>0.473</v>
       </c>
       <c r="N7">
-        <v>0.006238859180035651</v>
+        <v>0.04548076923076923</v>
       </c>
       <c r="O7">
-        <v>0.02966101694915255</v>
+        <v>0.5474537037037037</v>
       </c>
       <c r="P7">
-        <v>0.035</v>
+        <v>0.214</v>
       </c>
       <c r="Q7">
-        <v>0.006238859180035651</v>
+        <v>0.02057692307692308</v>
       </c>
       <c r="R7">
-        <v>0.02966101694915255</v>
+        <v>0.2476851851851852</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.5475687103594081</v>
       </c>
       <c r="U7">
-        <v>3.64</v>
+        <v>3.34</v>
       </c>
       <c r="V7">
-        <v>0.6488413547237076</v>
+        <v>0.3211538461538461</v>
       </c>
       <c r="W7">
-        <v>0.2599118942731277</v>
+        <v>0.1444816053511706</v>
       </c>
       <c r="X7">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="Y7">
-        <v>0.1877627673350894</v>
+        <v>0.07607744419529773</v>
       </c>
       <c r="Z7">
-        <v>159.5307917888563</v>
+        <v>79.3162393162393</v>
       </c>
       <c r="AA7">
-        <v>0.346041055718475</v>
+        <v>0.3692307692307692</v>
       </c>
       <c r="AB7">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="AC7">
-        <v>0.2738919287804367</v>
+        <v>0.3008266080748964</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1309,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>-3.64</v>
+        <v>-3.34</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1318,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>-1.847715736040609</v>
+        <v>-0.4730878186968838</v>
       </c>
       <c r="AK7">
-        <v>-1.555555555555555</v>
+        <v>-1.976331360946745</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1333,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>-3.033333333333334</v>
+        <v>-3.821510297482837</v>
       </c>
     </row>
     <row r="8">
@@ -1344,7 +1365,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Euro Trend Yatirim Ortakligi A.S. (IBSE:ETYAT)</t>
+          <t>Metro Yatirim Ortakligi A.S. (IBSE:MTRYO)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1353,46 +1374,46 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.703</v>
+        <v>0.457</v>
       </c>
       <c r="E8">
-        <v>0.511</v>
+        <v>1.154</v>
       </c>
       <c r="G8">
-        <v>0.0002502522704339052</v>
+        <v>0.06031746031746032</v>
       </c>
       <c r="H8">
-        <v>0.0002502522704339052</v>
+        <v>0.06031746031746032</v>
       </c>
       <c r="I8">
-        <v>0.002098890010090817</v>
+        <v>0.03412698412698413</v>
       </c>
       <c r="J8">
-        <v>0.002098890010090817</v>
+        <v>0.03412698412698413</v>
       </c>
       <c r="K8">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="L8">
-        <v>0.002119071644803229</v>
+        <v>0.03412698412698413</v>
       </c>
       <c r="M8">
-        <v>0.021</v>
+        <v>0.346</v>
       </c>
       <c r="N8">
-        <v>0.005</v>
+        <v>0.02621212121212121</v>
       </c>
       <c r="O8">
-        <v>0.02</v>
+        <v>0.2682170542635658</v>
       </c>
       <c r="P8">
-        <v>0.021</v>
+        <v>0.346</v>
       </c>
       <c r="Q8">
-        <v>0.005</v>
+        <v>0.02621212121212121</v>
       </c>
       <c r="R8">
-        <v>0.02</v>
+        <v>0.2682170542635658</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1401,31 +1422,31 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>3.23</v>
+        <v>6.75</v>
       </c>
       <c r="V8">
-        <v>0.769047619047619</v>
+        <v>0.5113636363636364</v>
       </c>
       <c r="W8">
-        <v>0.2530120481927711</v>
+        <v>0.1391585760517799</v>
       </c>
       <c r="X8">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="Y8">
-        <v>0.1808629212547327</v>
+        <v>0.07075441489590713</v>
       </c>
       <c r="Z8">
-        <v>160.8766233766234</v>
+        <v>10.70821529745043</v>
       </c>
       <c r="AA8">
-        <v>0.3376623376623377</v>
+        <v>0.3654390934844193</v>
       </c>
       <c r="AB8">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="AC8">
-        <v>0.2655132107242993</v>
+        <v>0.2970349323285465</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1437,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>-3.23</v>
+        <v>-6.75</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1446,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-3.329896907216494</v>
+        <v>-1.046511627906977</v>
       </c>
       <c r="AK8">
-        <v>-1.461538461538461</v>
+        <v>-1.8</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1461,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>-3.076190476190476</v>
+        <v>-5.232558139534883</v>
       </c>
     </row>
     <row r="9">
@@ -1472,7 +1493,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Euro Menkul Kiymet Yatirim Ortakligi Anonim Sirketi (IBSE:EUYO)</t>
+          <t>Atlas Menkul Kiymetler Yatirim Ortakligi A.S. (IBSE:ATLAS)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1481,46 +1502,43 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.6709999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.471</v>
+        <v>-0.0474</v>
       </c>
       <c r="G9">
-        <v>0.0001969943135662063</v>
+        <v>0.05013774104683196</v>
       </c>
       <c r="H9">
-        <v>0.0001969943135662063</v>
+        <v>0.05013774104683196</v>
       </c>
       <c r="I9">
-        <v>0.002152721364744111</v>
+        <v>0.02865013774104683</v>
       </c>
       <c r="J9">
-        <v>0.002152721364744111</v>
+        <v>0.02865013774104683</v>
       </c>
       <c r="K9">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="L9">
-        <v>0.002051177904142973</v>
+        <v>0.02809917355371901</v>
       </c>
       <c r="M9">
-        <v>0.015</v>
+        <v>0.267</v>
       </c>
       <c r="N9">
-        <v>0.003778337531486146</v>
+        <v>0.03776520509193777</v>
       </c>
       <c r="O9">
-        <v>0.01485148514851485</v>
+        <v>0.261764705882353</v>
       </c>
       <c r="P9">
-        <v>0.015</v>
+        <v>0.267</v>
       </c>
       <c r="Q9">
-        <v>0.003778337531486146</v>
+        <v>0.03776520509193777</v>
       </c>
       <c r="R9">
-        <v>0.01485148514851485</v>
+        <v>0.261764705882353</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1529,31 +1547,31 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>3.25</v>
+        <v>6.54</v>
       </c>
       <c r="V9">
-        <v>0.818639798488665</v>
+        <v>0.925035360678925</v>
       </c>
       <c r="W9">
-        <v>0.235981308411215</v>
+        <v>0.1354581673306773</v>
       </c>
       <c r="X9">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="Y9">
-        <v>0.1638321814731766</v>
+        <v>0.06705400617480446</v>
       </c>
       <c r="Z9">
-        <v>151.9753086419753</v>
+        <v>9.705882352941176</v>
       </c>
       <c r="AA9">
-        <v>0.3271604938271605</v>
+        <v>0.2780748663101604</v>
       </c>
       <c r="AB9">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="AC9">
-        <v>0.2550113668891222</v>
+        <v>0.2096707051542876</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1565,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>-3.25</v>
+        <v>-6.54</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1574,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>-4.513888888888888</v>
+        <v>-12.33962264150943</v>
       </c>
       <c r="AK9">
-        <v>-1.41304347826087</v>
+        <v>-1.78688524590164</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1589,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>-3.037383177570093</v>
+        <v>-6.288461538461538</v>
       </c>
     </row>
     <row r="10">
@@ -1609,7 +1627,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.154</v>
+        <v>-0.049</v>
+      </c>
+      <c r="E10">
+        <v>0.785</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1618,34 +1639,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.105607476635514</v>
+        <v>0.05184466019417475</v>
       </c>
       <c r="J10">
-        <v>0.105607476635514</v>
+        <v>0.05184466019417475</v>
       </c>
       <c r="K10">
-        <v>1.13</v>
+        <v>0.534</v>
       </c>
       <c r="L10">
-        <v>0.105607476635514</v>
+        <v>0.05184466019417475</v>
       </c>
       <c r="M10">
-        <v>0.099</v>
+        <v>0.147</v>
       </c>
       <c r="N10">
-        <v>0.01264367816091954</v>
+        <v>0.007860962566844919</v>
       </c>
       <c r="O10">
-        <v>0.08761061946902655</v>
+        <v>0.2752808988764044</v>
       </c>
       <c r="P10">
-        <v>0.099</v>
+        <v>0.147</v>
       </c>
       <c r="Q10">
-        <v>0.01264367816091954</v>
+        <v>0.007860962566844919</v>
       </c>
       <c r="R10">
-        <v>0.08761061946902655</v>
+        <v>0.2752808988764044</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1654,31 +1675,31 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2.54</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V10">
-        <v>0.3243933588761175</v>
+        <v>0.003850267379679144</v>
       </c>
       <c r="W10">
-        <v>0.2927461139896373</v>
+        <v>0.1038910505836576</v>
       </c>
       <c r="X10">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="Y10">
-        <v>0.220596987051599</v>
+        <v>0.03548688942778477</v>
       </c>
       <c r="Z10">
-        <v>2.774896265560166</v>
+        <v>3.961538461538463</v>
       </c>
       <c r="AA10">
-        <v>0.2930497925311203</v>
+        <v>0.2053846153846154</v>
       </c>
       <c r="AB10">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="AC10">
-        <v>0.220900665593082</v>
+        <v>0.1369804542287426</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1690,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>-2.54</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1699,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>-0.4801512287334593</v>
+        <v>-0.003865149237706678</v>
       </c>
       <c r="AK10">
-        <v>-0.9769230769230771</v>
+        <v>-0.01765571358509073</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1719,7 +1740,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Güler Yatirim Holding A.S. (IBSE:GLRYH)</t>
+          <t>Is Yatirim Ortakligi A.S. (IBSE:ISYAT)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1728,121 +1749,121 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>-0.169</v>
       </c>
       <c r="E11">
-        <v>-0.05230000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="G11">
-        <v>0.05568555758683729</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="H11">
-        <v>0.04277879341864716</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="I11">
-        <v>0.02541133455210237</v>
+        <v>0.1760869565217391</v>
       </c>
       <c r="J11">
-        <v>0.02541133455210237</v>
+        <v>0.1760869565217391</v>
       </c>
       <c r="K11">
-        <v>0.325</v>
+        <v>4.03</v>
       </c>
       <c r="L11">
-        <v>0.005941499085923218</v>
+        <v>0.1752173913043478</v>
       </c>
       <c r="M11">
-        <v>0.315</v>
+        <v>7.14</v>
       </c>
       <c r="N11">
-        <v>0.03088235294117647</v>
+        <v>0.09382391590013141</v>
       </c>
       <c r="O11">
-        <v>0.9692307692307692</v>
+        <v>1.771712158808933</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>7.14</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.09382391590013141</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>1.771712158808933</v>
       </c>
       <c r="S11">
-        <v>0.315</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>2.71</v>
+        <v>0.333</v>
       </c>
       <c r="V11">
-        <v>0.2656862745098039</v>
+        <v>0.004375821287779238</v>
       </c>
       <c r="W11">
-        <v>0.03555798687089715</v>
+        <v>0.08592750533049041</v>
       </c>
       <c r="X11">
-        <v>0.09705078987154517</v>
+        <v>0.06845430446533729</v>
       </c>
       <c r="Y11">
-        <v>-0.06149280300064802</v>
+        <v>0.01747320086515312</v>
       </c>
       <c r="Z11">
-        <v>9.579684763572681</v>
+        <v>0.7133110035975685</v>
       </c>
       <c r="AA11">
-        <v>0.2434325744308231</v>
+        <v>0.1256047636769632</v>
       </c>
       <c r="AB11">
-        <v>0.08273747923492686</v>
+        <v>0.06844780238536256</v>
       </c>
       <c r="AC11">
-        <v>0.1606950951958963</v>
+        <v>0.0571569612916006</v>
       </c>
       <c r="AD11">
-        <v>6.15</v>
+        <v>0.093</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>6.15</v>
+        <v>0.093</v>
       </c>
       <c r="AG11">
-        <v>3.44</v>
+        <v>-0.24</v>
       </c>
       <c r="AH11">
-        <v>0.3761467889908257</v>
+        <v>0.00122058456813618</v>
       </c>
       <c r="AI11">
-        <v>0.236084452975048</v>
+        <v>0.002971910650944301</v>
       </c>
       <c r="AJ11">
-        <v>0.2521994134897361</v>
+        <v>-0.003163722646981281</v>
       </c>
       <c r="AK11">
-        <v>0.1473864610111397</v>
+        <v>-0.007751937984496125</v>
       </c>
       <c r="AL11">
-        <v>1.07</v>
+        <v>0.023</v>
       </c>
       <c r="AM11">
-        <v>-0.28</v>
+        <v>0.023</v>
       </c>
       <c r="AN11">
-        <v>3.53448275862069</v>
+        <v>0.02296296296296296</v>
       </c>
       <c r="AO11">
-        <v>1.299065420560747</v>
+        <v>176.0869565217391</v>
       </c>
       <c r="AP11">
-        <v>1.977011494252874</v>
+        <v>-0.05925925925925927</v>
       </c>
       <c r="AQ11">
-        <v>-4.964285714285714</v>
+        <v>176.0869565217391</v>
       </c>
     </row>
     <row r="12">
@@ -1853,7 +1874,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Metro Yatirim Ortakligi A.S. (IBSE:MTRYO)</t>
+          <t>Marka Yatirim Holding A.S. (IBSE:MARKA)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1862,115 +1883,115 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.351</v>
-      </c>
-      <c r="E12">
-        <v>0.277</v>
+        <v>1.791</v>
       </c>
       <c r="G12">
-        <v>-0.01950549450549451</v>
+        <v>0.7637254901960785</v>
       </c>
       <c r="H12">
-        <v>-0.01950549450549451</v>
+        <v>0.7637254901960785</v>
       </c>
       <c r="I12">
-        <v>0.0304945054945055</v>
+        <v>0.8480392156862745</v>
       </c>
       <c r="J12">
-        <v>0.0304945054945055</v>
+        <v>0.630078259373925</v>
       </c>
       <c r="K12">
-        <v>1.11</v>
+        <v>0.849</v>
       </c>
       <c r="L12">
-        <v>0.0304945054945055</v>
+        <v>0.8323529411764705</v>
       </c>
       <c r="M12">
-        <v>0.149</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.005191637630662021</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>0.1342342342342342</v>
+        <v>-0</v>
       </c>
       <c r="P12">
-        <v>0.149</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.005191637630662021</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>0.1342342342342342</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>5.74</v>
+        <v>0.02</v>
       </c>
       <c r="V12">
-        <v>0.2</v>
+        <v>0.001098901098901099</v>
       </c>
       <c r="W12">
-        <v>0.1449086161879896</v>
+        <v>0.07074999999999999</v>
       </c>
       <c r="X12">
-        <v>0.07214912693803832</v>
+        <v>0.06880545575669048</v>
       </c>
       <c r="Y12">
-        <v>0.07275948924995124</v>
+        <v>0.001944544243309518</v>
       </c>
       <c r="Z12">
-        <v>7.137254901960785</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="AA12">
-        <v>0.2176470588235294</v>
+        <v>0.1133474117392246</v>
       </c>
       <c r="AB12">
-        <v>0.07214912693803832</v>
+        <v>0.06878203843605663</v>
       </c>
       <c r="AC12">
-        <v>0.1454979318854911</v>
+        <v>0.04456537330316798</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="AG12">
-        <v>-5.74</v>
+        <v>0.158</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.009685493524866688</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.05132641291810842</v>
       </c>
       <c r="AJ12">
-        <v>-0.25</v>
+        <v>0.008606602026364528</v>
       </c>
       <c r="AK12">
-        <v>-1.626062322946176</v>
+        <v>0.04582366589327146</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>-0.271</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>0.2011299435028248</v>
+      </c>
+      <c r="AO12">
+        <v>7.654867256637168</v>
       </c>
       <c r="AP12">
-        <v>-5.171171171171171</v>
+        <v>0.1785310734463277</v>
+      </c>
+      <c r="AQ12">
+        <v>-3.191881918819188</v>
       </c>
     </row>
     <row r="13">
@@ -1981,7 +2002,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vakif Menkul Kiymet Yatirim Ortakligi A.S. (IBSE:VKFYO)</t>
+          <t>Garanti Yatirim Ortakligi A.S. (IBSE:GRNYO)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1990,115 +2011,121 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.0684</v>
+        <v>-0.0525</v>
+      </c>
+      <c r="E13">
+        <v>0.07049999999999999</v>
       </c>
       <c r="G13">
-        <v>0.003672787979966611</v>
+        <v>0.09102384291725106</v>
       </c>
       <c r="H13">
-        <v>0.003672787979966611</v>
+        <v>0.09102384291725106</v>
       </c>
       <c r="I13">
-        <v>0.03706176961602671</v>
+        <v>0.0211781206171108</v>
       </c>
       <c r="J13">
-        <v>0.03706176961602671</v>
+        <v>0.0211781206171108</v>
       </c>
       <c r="K13">
-        <v>0.222</v>
+        <v>0.129</v>
       </c>
       <c r="L13">
-        <v>0.03706176961602671</v>
+        <v>0.01809256661991585</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>0.113</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.006932515337423313</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0.875968992248062</v>
       </c>
       <c r="P13">
-        <v>-0</v>
+        <v>0.113</v>
       </c>
       <c r="Q13">
-        <v>-0</v>
+        <v>0.006932515337423313</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>0.875968992248062</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
       <c r="U13">
-        <v>2.84</v>
+        <v>0.844</v>
       </c>
       <c r="V13">
-        <v>0.3627075351213282</v>
+        <v>0.05177914110429448</v>
       </c>
       <c r="W13">
-        <v>0.07735191637630662</v>
+        <v>0.01824611032531825</v>
       </c>
       <c r="X13">
-        <v>0.07217022544072628</v>
+        <v>0.06881950812156366</v>
       </c>
       <c r="Y13">
-        <v>0.005181690935580338</v>
+        <v>-0.05057339779624542</v>
       </c>
       <c r="Z13">
-        <v>4.572519083969466</v>
+        <v>1.798688193743693</v>
       </c>
       <c r="AA13">
-        <v>0.1694656488549618</v>
+        <v>0.03809283551967709</v>
       </c>
       <c r="AB13">
-        <v>0.07216349993878381</v>
+        <v>0.06876246487131653</v>
       </c>
       <c r="AC13">
-        <v>0.09730214891617801</v>
+        <v>-0.03066962935163944</v>
       </c>
       <c r="AD13">
-        <v>0.004</v>
+        <v>0.165</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.004</v>
+        <v>0.165</v>
       </c>
       <c r="AG13">
-        <v>-2.836</v>
+        <v>-0.6789999999999999</v>
       </c>
       <c r="AH13">
-        <v>0.0005105948429920858</v>
+        <v>0.01002125721226845</v>
       </c>
       <c r="AI13">
-        <v>0.001221747098350641</v>
+        <v>0.03086997193638915</v>
       </c>
       <c r="AJ13">
-        <v>-0.5678814577492991</v>
+        <v>-0.04346712758466167</v>
       </c>
       <c r="AK13">
-        <v>-6.534562211981564</v>
+        <v>-0.150855365474339</v>
       </c>
       <c r="AL13">
-        <v>0.001</v>
+        <v>0.023</v>
       </c>
       <c r="AM13">
-        <v>0.001</v>
+        <v>0.023</v>
       </c>
       <c r="AN13">
-        <v>0.01724137931034483</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="AO13">
-        <v>222</v>
+        <v>6.565217391304348</v>
       </c>
       <c r="AP13">
-        <v>-12.22413793103448</v>
+        <v>-4.380645161290322</v>
       </c>
       <c r="AQ13">
-        <v>222</v>
+        <v>6.565217391304348</v>
       </c>
     </row>
     <row r="14">
@@ -2109,7 +2136,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Garanti Yatirim Ortakligi A.S. (IBSE:GRNYO)</t>
+          <t>Verusa Holding A.S. (IBSE:VERUS)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2118,46 +2145,46 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.29</v>
+        <v>-0.08650000000000001</v>
       </c>
       <c r="E14">
-        <v>0.326</v>
+        <v>0.114</v>
       </c>
       <c r="G14">
-        <v>0.1276657060518732</v>
+        <v>0.5623229461756375</v>
       </c>
       <c r="H14">
-        <v>0.1276657060518732</v>
+        <v>0.5623229461756375</v>
       </c>
       <c r="I14">
-        <v>0.2043227665706052</v>
+        <v>0.2407932011331445</v>
       </c>
       <c r="J14">
-        <v>0.2043227665706052</v>
+        <v>0.2232676437984973</v>
       </c>
       <c r="K14">
-        <v>0.6830000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="L14">
-        <v>0.1968299711815562</v>
+        <v>1.260623229461757</v>
       </c>
       <c r="M14">
-        <v>0.125</v>
+        <v>0.091</v>
       </c>
       <c r="N14">
-        <v>0.01968503937007874</v>
+        <v>0.0002140672782874618</v>
       </c>
       <c r="O14">
-        <v>0.1830161054172767</v>
+        <v>0.01022471910112359</v>
       </c>
       <c r="P14">
-        <v>0.125</v>
+        <v>0.091</v>
       </c>
       <c r="Q14">
-        <v>0.01968503937007874</v>
+        <v>0.0002140672782874618</v>
       </c>
       <c r="R14">
-        <v>0.1830161054172767</v>
+        <v>0.01022471910112359</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2166,73 +2193,73 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="V14">
-        <v>0.5275590551181103</v>
+        <v>0.008468595624558928</v>
       </c>
       <c r="W14">
-        <v>0.1116013071895425</v>
+        <v>0.173828125</v>
       </c>
       <c r="X14">
-        <v>0.07373609982604579</v>
+        <v>0.0695334614962833</v>
       </c>
       <c r="Y14">
-        <v>0.0378652073634967</v>
+        <v>0.1042946635037167</v>
       </c>
       <c r="Z14">
-        <v>0.7660044150110376</v>
+        <v>0.1238813826987191</v>
       </c>
       <c r="AA14">
-        <v>0.1565121412803532</v>
+        <v>0.02765870442564294</v>
       </c>
       <c r="AB14">
-        <v>0.07308107527868815</v>
+        <v>0.06936186743424631</v>
       </c>
       <c r="AC14">
-        <v>0.08343106600166503</v>
+        <v>-0.04170316300860337</v>
       </c>
       <c r="AD14">
-        <v>0.244</v>
+        <v>11.7</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.244</v>
+        <v>11.7</v>
       </c>
       <c r="AG14">
-        <v>-3.106</v>
+        <v>8.1</v>
       </c>
       <c r="AH14">
-        <v>0.03700333636639369</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="AI14">
-        <v>0.03336067815149029</v>
+        <v>0.1657223796033994</v>
       </c>
       <c r="AJ14">
-        <v>-0.9574599260172627</v>
+        <v>0.01869806094182825</v>
       </c>
       <c r="AK14">
-        <v>-0.7835519677093844</v>
+        <v>0.1208955223880597</v>
       </c>
       <c r="AL14">
-        <v>0.026</v>
+        <v>2.44</v>
       </c>
       <c r="AM14">
-        <v>0.026</v>
+        <v>2.063</v>
       </c>
       <c r="AN14">
-        <v>0.3417366946778712</v>
+        <v>5.939086294416243</v>
       </c>
       <c r="AO14">
-        <v>27.26923076923077</v>
+        <v>0.6967213114754098</v>
       </c>
       <c r="AP14">
-        <v>-4.350140056022409</v>
+        <v>4.111675126903553</v>
       </c>
       <c r="AQ14">
-        <v>27.26923076923077</v>
+        <v>0.8240426563257393</v>
       </c>
     </row>
     <row r="15">
@@ -2243,7 +2270,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Verusa Holding A.S. (IBSE:VERUS)</t>
+          <t>Is Girisim Sermayesi Yatirim Ortakligi AS (IBSE:ISGSY)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2252,118 +2279,112 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.133</v>
+        <v>0.169</v>
+      </c>
+      <c r="E15">
+        <v>-0.385</v>
       </c>
       <c r="G15">
-        <v>0.1107142857142857</v>
+        <v>0.06108597285067874</v>
       </c>
       <c r="H15">
-        <v>0.1107142857142857</v>
+        <v>0.06108597285067874</v>
       </c>
       <c r="I15">
-        <v>0.4114285714285714</v>
+        <v>0.008597285067873304</v>
       </c>
       <c r="J15">
-        <v>0.3594440154440154</v>
+        <v>0.008597285067873304</v>
       </c>
       <c r="K15">
-        <v>10.9</v>
+        <v>0.059</v>
       </c>
       <c r="L15">
-        <v>0.7785714285714286</v>
+        <v>0.01334841628959276</v>
       </c>
       <c r="M15">
-        <v>1.653</v>
+        <v>-0</v>
       </c>
       <c r="N15">
-        <v>0.007572148419606047</v>
+        <v>-0</v>
       </c>
       <c r="O15">
-        <v>0.151651376146789</v>
+        <v>-0</v>
       </c>
       <c r="P15">
-        <v>0.403</v>
+        <v>-0</v>
       </c>
       <c r="Q15">
-        <v>0.0018460833715071</v>
+        <v>-0</v>
       </c>
       <c r="R15">
-        <v>0.03697247706422018</v>
+        <v>-0</v>
       </c>
       <c r="S15">
-        <v>1.25</v>
-      </c>
-      <c r="T15">
-        <v>0.7562008469449486</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>3.07</v>
+        <v>4.41</v>
       </c>
       <c r="V15">
-        <v>0.01406321575813101</v>
+        <v>0.0231496062992126</v>
       </c>
       <c r="W15">
-        <v>0.2860892388451444</v>
+        <v>0.001252653927813163</v>
       </c>
       <c r="X15">
-        <v>0.07279237514985543</v>
+        <v>0.06844271544973414</v>
       </c>
       <c r="Y15">
-        <v>0.2132968636952889</v>
+        <v>-0.06719006152192097</v>
       </c>
       <c r="Z15">
-        <v>0.3277306990027622</v>
+        <v>0.1123252858958069</v>
       </c>
       <c r="AA15">
-        <v>0.1178008384338269</v>
+        <v>0.00096569250317662</v>
       </c>
       <c r="AB15">
-        <v>0.07258082912416403</v>
+        <v>0.06843772558521713</v>
       </c>
       <c r="AC15">
-        <v>0.04522000930966284</v>
+        <v>-0.06747203308204051</v>
       </c>
       <c r="AD15">
-        <v>3.4</v>
+        <v>0.179</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>3.4</v>
+        <v>0.179</v>
       </c>
       <c r="AG15">
-        <v>0.3300000000000001</v>
+        <v>-4.231</v>
       </c>
       <c r="AH15">
-        <v>0.0153360396932792</v>
+        <v>0.0009387504654419207</v>
       </c>
       <c r="AI15">
-        <v>0.05022156573116691</v>
+        <v>0.005146783978837804</v>
       </c>
       <c r="AJ15">
-        <v>0.0015093994419796</v>
+        <v>-0.02271446134354079</v>
       </c>
       <c r="AK15">
-        <v>0.005105987931301255</v>
+        <v>-0.1393197010108993</v>
       </c>
       <c r="AL15">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>-0.1300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>0.5564648117839607</v>
-      </c>
-      <c r="AO15">
-        <v>3.449101796407186</v>
+        <v>4.261904761904762</v>
       </c>
       <c r="AP15">
-        <v>0.05400981996726678</v>
-      </c>
-      <c r="AQ15">
-        <v>-44.30769230769226</v>
+        <v>-100.7380952380952</v>
       </c>
     </row>
     <row r="16">
@@ -2374,7 +2395,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Atlas Menkul Kiymetler Yatirim Ortakligi A.S. (IBSE:ATLAS)</t>
+          <t>Osmanli Yatirim Menkul Degerler A.S. (IBSE:OSMEN)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2383,43 +2404,46 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.149</v>
+        <v>0.177</v>
+      </c>
+      <c r="E16">
+        <v>0.586</v>
       </c>
       <c r="G16">
-        <v>-0.001613832853025937</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>-0.001613832853025937</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.00654178674351585</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.00654178674351585</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.227</v>
+        <v>5.43</v>
       </c>
       <c r="L16">
-        <v>0.00654178674351585</v>
+        <v>0.01750483558994197</v>
       </c>
       <c r="M16">
-        <v>0.256</v>
+        <v>0.156</v>
       </c>
       <c r="N16">
-        <v>0.03526170798898072</v>
+        <v>0.0018863361547763</v>
       </c>
       <c r="O16">
-        <v>1.127753303964758</v>
+        <v>0.0287292817679558</v>
       </c>
       <c r="P16">
-        <v>0.256</v>
+        <v>0.156</v>
       </c>
       <c r="Q16">
-        <v>0.03526170798898072</v>
+        <v>0.0018863361547763</v>
       </c>
       <c r="R16">
-        <v>1.127753303964758</v>
+        <v>0.0287292817679558</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2428,67 +2452,64 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>3.79</v>
+        <v>16.7</v>
       </c>
       <c r="V16">
-        <v>0.5220385674931129</v>
+        <v>0.2019347037484885</v>
       </c>
       <c r="W16">
-        <v>0.03197183098591549</v>
+        <v>0.7779369627507162</v>
       </c>
       <c r="X16">
-        <v>0.07214912693803832</v>
+        <v>0.06900449739890682</v>
       </c>
       <c r="Y16">
-        <v>-0.04017729595212283</v>
+        <v>0.7089324653518094</v>
       </c>
       <c r="Z16">
-        <v>6.60952380952381</v>
+        <v>43.99999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.04323809523809524</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.07214912693803832</v>
+        <v>0.0689197467231281</v>
       </c>
       <c r="AC16">
-        <v>-0.02891103169994308</v>
+        <v>-0.0689197467231281</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG16">
-        <v>-3.79</v>
+        <v>-15.49</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.01442021213204624</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.1042204995693368</v>
       </c>
       <c r="AJ16">
-        <v>-1.092219020172911</v>
+        <v>-0.2304716560035708</v>
       </c>
       <c r="AK16">
-        <v>-1.013368983957219</v>
+        <v>3.043222003929274</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>-16.62280701754386</v>
+        <v>-1.82</v>
+      </c>
+      <c r="AQ16">
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -2499,7 +2520,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Is Girisim Sermayesi Yatirim Ortakligi AS (IBSE:ISGSY)</t>
+          <t>Yesil Yatirim Holding Anonim Sirketi (IBSE:YESIL)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2507,29 +2528,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D17">
-        <v>-0.269</v>
-      </c>
-      <c r="E17">
-        <v>-0.0622</v>
-      </c>
-      <c r="G17">
-        <v>0.08259385665529009</v>
-      </c>
-      <c r="H17">
-        <v>0.08259385665529009</v>
-      </c>
-      <c r="I17">
-        <v>0.3092150170648464</v>
-      </c>
-      <c r="J17">
-        <v>0.3092150170648464</v>
-      </c>
       <c r="K17">
-        <v>1.23</v>
-      </c>
-      <c r="L17">
-        <v>0.4197952218430034</v>
+        <v>6.63</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2553,67 +2553,67 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>8.07</v>
+        <v>0.004</v>
       </c>
       <c r="V17">
-        <v>0.1691823899371069</v>
+        <v>4.61361014994233e-05</v>
       </c>
       <c r="W17">
-        <v>0.02853828306264501</v>
+        <v>0.1932944606413994</v>
       </c>
       <c r="X17">
-        <v>0.07242619406767636</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="Y17">
-        <v>-0.04388791100503135</v>
+        <v>0.1248902994855266</v>
       </c>
       <c r="Z17">
-        <v>0.08244231851435004</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.02549240292628025</v>
+        <v>-0.001413866865572211</v>
       </c>
       <c r="AB17">
-        <v>0.07231696048712635</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="AC17">
-        <v>-0.04682455756084611</v>
+        <v>-0.06981802802144503</v>
       </c>
       <c r="AD17">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>-7.75</v>
+        <v>-0.004</v>
       </c>
       <c r="AH17">
-        <v>0.006663890045814243</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>0.006748207507380852</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>-0.1939924906132666</v>
+        <v>-4.613823013749193e-05</v>
       </c>
       <c r="AK17">
-        <v>-0.1969504447268107</v>
+        <v>-0.0001258019876714052</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0.3516483516483516</v>
-      </c>
-      <c r="AP17">
-        <v>-8.516483516483516</v>
+        <v>0.149</v>
+      </c>
+      <c r="AO17">
+        <v>-0.4093959731543624</v>
+      </c>
+      <c r="AQ17">
+        <v>-0.4093959731543624</v>
       </c>
     </row>
     <row r="18">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dagi Yatirim Holding A.S. (IBSE:DAGHL)</t>
+          <t>Deniz Gayrimenkul Yatirim Ortakligi A.S. (IBSE:DZGYO)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.08400000000000001</v>
+        <v>0.258</v>
       </c>
       <c r="G18">
-        <v>-0.1178247734138973</v>
+        <v>0.3404545454545455</v>
       </c>
       <c r="H18">
-        <v>-0.1178247734138973</v>
+        <v>0.3404545454545455</v>
       </c>
       <c r="I18">
-        <v>0.07250755287009063</v>
+        <v>0.3309090909090909</v>
       </c>
       <c r="J18">
-        <v>0.05561658884921725</v>
+        <v>0.3309090909090909</v>
       </c>
       <c r="K18">
-        <v>0.405</v>
+        <v>2.08</v>
       </c>
       <c r="L18">
-        <v>1.223564954682779</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2675,70 +2675,73 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.001</v>
+        <v>0.626</v>
       </c>
       <c r="V18">
-        <v>0.0002439024390243903</v>
+        <v>0.009059334298118669</v>
       </c>
       <c r="W18">
-        <v>0.1808035714285714</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="X18">
-        <v>0.07214912693803832</v>
+        <v>0.09120589538077445</v>
       </c>
       <c r="Y18">
-        <v>0.1086544444905331</v>
+        <v>-0.04414707185136268</v>
       </c>
       <c r="Z18">
-        <v>0.1481647269471799</v>
+        <v>0.02547770700636942</v>
       </c>
       <c r="AA18">
-        <v>0.008240416700577844</v>
+        <v>0.008430804863925882</v>
       </c>
       <c r="AB18">
-        <v>0.07214912693803832</v>
+        <v>0.08117595390634957</v>
       </c>
       <c r="AC18">
-        <v>-0.06390871023746048</v>
+        <v>-0.07274514904242368</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>38.4</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>38.4</v>
       </c>
       <c r="AG18">
-        <v>-0.001</v>
+        <v>37.774</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>0.3572093023255814</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>0.445993031358885</v>
       </c>
       <c r="AJ18">
-        <v>-0.0002439619419370579</v>
+        <v>0.3534442427531486</v>
       </c>
       <c r="AK18">
-        <v>-0.0003116235587410408</v>
+        <v>0.4419355593513817</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>0.798</v>
       </c>
       <c r="AM18">
-        <v>-0.001</v>
+        <v>-1.292</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>52.74725274725274</v>
+      </c>
+      <c r="AO18">
+        <v>0.9122807017543859</v>
       </c>
       <c r="AP18">
-        <v>-0.04166666666666666</v>
+        <v>51.88736263736264</v>
       </c>
       <c r="AQ18">
-        <v>-24</v>
+        <v>-0.563467492260062</v>
       </c>
     </row>
     <row r="19">
@@ -2749,7 +2752,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Deniz Gayrimenkul Yatirim Ortakligi A.S. (IBSE:DZGYO)</t>
+          <t>Info Yatirim Menkul Degerler A.S. (IBSE:INFO)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2758,28 +2761,28 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.348</v>
+        <v>0.507</v>
       </c>
       <c r="E19">
-        <v>0.108</v>
+        <v>0.711</v>
       </c>
       <c r="G19">
-        <v>0.2984848484848485</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2984848484848485</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2693181818181818</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2693181818181818</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>4.69</v>
+        <v>4.21</v>
       </c>
       <c r="L19">
-        <v>1.776515151515152</v>
+        <v>0.01873609256786827</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -2803,73 +2806,64 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>6.05</v>
+        <v>37.6</v>
       </c>
       <c r="V19">
-        <v>0.1443914081145585</v>
+        <v>0.4326812428078251</v>
       </c>
       <c r="W19">
-        <v>0.1267567567567568</v>
+        <v>0.6912972085385879</v>
       </c>
       <c r="X19">
-        <v>0.1196592791185273</v>
+        <v>0.08025553361973561</v>
       </c>
       <c r="Y19">
-        <v>0.007097477638229446</v>
+        <v>0.6110416749188523</v>
       </c>
       <c r="Z19">
-        <v>0.0616678346180799</v>
+        <v>101.6742081447964</v>
       </c>
       <c r="AA19">
-        <v>0.01660826909600561</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.08562240283673975</v>
+        <v>0.07714764928016919</v>
       </c>
       <c r="AC19">
-        <v>-0.06901413374073415</v>
+        <v>-0.07714764928016919</v>
       </c>
       <c r="AD19">
-        <v>48.2</v>
+        <v>25.1</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>48.2</v>
+        <v>25.1</v>
       </c>
       <c r="AG19">
-        <v>42.15000000000001</v>
+        <v>-12.5</v>
       </c>
       <c r="AH19">
-        <v>0.53496115427303</v>
+        <v>0.2241071428571429</v>
       </c>
       <c r="AI19">
-        <v>0.5216450216450217</v>
+        <v>0.6933701657458563</v>
       </c>
       <c r="AJ19">
-        <v>0.5014872099940512</v>
+        <v>-0.168010752688172</v>
       </c>
       <c r="AK19">
-        <v>0.4881297046902143</v>
+        <v>8.928571428571427</v>
       </c>
       <c r="AL19">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>-4.37</v>
-      </c>
-      <c r="AN19">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="AO19">
-        <v>0.55546875</v>
-      </c>
-      <c r="AP19">
-        <v>58.298755186722</v>
+        <v>-0.582</v>
       </c>
       <c r="AQ19">
-        <v>-0.1627002288329519</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -2880,7 +2874,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Verusaturk Girisim Sermayesi Yatirim Ortakligi A.S. (IBSE:VERTU)</t>
+          <t>Gozde Girisim Sermayesi Yatirim Ortakligi A.S. (IBSE:GOZDE)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2888,116 +2882,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D20">
+        <v>0.24</v>
+      </c>
       <c r="G20">
-        <v>-0.04711246200607903</v>
+        <v>0.2027777777777778</v>
       </c>
       <c r="H20">
-        <v>-0.04711246200607903</v>
+        <v>0.2027777777777778</v>
       </c>
       <c r="I20">
-        <v>-0.00121580547112462</v>
+        <v>0.07722222222222222</v>
       </c>
       <c r="J20">
-        <v>-0.00121580547112462</v>
+        <v>0.07722222222222222</v>
       </c>
       <c r="K20">
-        <v>3.13</v>
+        <v>10.8</v>
       </c>
       <c r="L20">
-        <v>0.4756838905775076</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>2.16</v>
+        <v>-0</v>
       </c>
       <c r="N20">
-        <v>0.04585987261146497</v>
+        <v>-0</v>
       </c>
       <c r="O20">
-        <v>0.6900958466453675</v>
+        <v>-0</v>
       </c>
       <c r="P20">
-        <v>2.16</v>
+        <v>-0</v>
       </c>
       <c r="Q20">
-        <v>0.04585987261146497</v>
+        <v>-0</v>
       </c>
       <c r="R20">
-        <v>0.6900958466453675</v>
+        <v>-0</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
-        <v>2.69</v>
+        <v>0.149</v>
       </c>
       <c r="V20">
-        <v>0.05711252653927813</v>
+        <v>0.0003601643703166546</v>
       </c>
       <c r="W20">
-        <v>0.1163568773234201</v>
+        <v>0.02965403624382208</v>
       </c>
       <c r="X20">
-        <v>0.07214912693803832</v>
+        <v>0.09389371915758002</v>
       </c>
       <c r="Y20">
-        <v>0.04420775038538176</v>
+        <v>-0.06423968291375794</v>
       </c>
       <c r="Z20">
-        <v>0.2401722816366756</v>
+        <v>0.01585714474489818</v>
       </c>
       <c r="AA20">
-        <v>-0.0002920027740263533</v>
+        <v>0.001224523955300471</v>
       </c>
       <c r="AB20">
-        <v>0.07214912693803832</v>
+        <v>0.08210458236590357</v>
       </c>
       <c r="AC20">
-        <v>-0.07244112971206468</v>
+        <v>-0.0808800584106031</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="AG20">
-        <v>-2.69</v>
+        <v>256.851</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>0.3831817504100193</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>0.4810031817331088</v>
       </c>
       <c r="AJ20">
-        <v>-0.06057194325602341</v>
+        <v>0.3830446901130563</v>
       </c>
       <c r="AK20">
-        <v>-0.09996283909327387</v>
+        <v>0.4808584089517757</v>
       </c>
       <c r="AL20">
-        <v>0.046</v>
+        <v>27</v>
       </c>
       <c r="AM20">
-        <v>-0.6609999999999999</v>
+        <v>26.272</v>
       </c>
       <c r="AN20">
-        <v>-0</v>
+        <v>307.7844311377245</v>
       </c>
       <c r="AO20">
-        <v>-0.1739130434782609</v>
+        <v>0.03088888888888889</v>
       </c>
       <c r="AP20">
-        <v>672.5</v>
+        <v>307.6059880239521</v>
       </c>
       <c r="AQ20">
-        <v>0.01210287443267776</v>
+        <v>0.03174482338611449</v>
       </c>
     </row>
     <row r="21">
@@ -3008,7 +3002,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Yesil Yatirim Holding Anonim Sirketi (IBSE:YESIL)</t>
+          <t>Verusaturk Girisim Sermayesi Yatirim Ortakligi A.S. (IBSE:VERTU)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3016,59 +3010,62 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="E21">
+        <v>0.194</v>
+      </c>
       <c r="K21">
-        <v>-10.3</v>
+        <v>11.5</v>
       </c>
       <c r="M21">
-        <v>0.124</v>
+        <v>1.196</v>
       </c>
       <c r="N21">
-        <v>0.009763779527559056</v>
+        <v>0.01305676855895197</v>
       </c>
       <c r="O21">
-        <v>-0.01203883495145631</v>
+        <v>0.104</v>
       </c>
       <c r="P21">
-        <v>-0</v>
+        <v>0.793</v>
       </c>
       <c r="Q21">
-        <v>-0</v>
+        <v>0.008657205240174673</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>0.06895652173913044</v>
       </c>
       <c r="S21">
-        <v>0.124</v>
+        <v>0.4030000000000001</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0.3369565217391305</v>
       </c>
       <c r="U21">
-        <v>0.002</v>
+        <v>2.42</v>
       </c>
       <c r="V21">
-        <v>0.0001574803149606299</v>
+        <v>0.02641921397379913</v>
       </c>
       <c r="W21">
-        <v>-0.2458233890214797</v>
+        <v>0.3885135135135135</v>
       </c>
       <c r="X21">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="Y21">
-        <v>-0.317972515959518</v>
+        <v>0.3201093523576407</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>-0.001503149456003054</v>
+        <v>-0.01441843180973616</v>
       </c>
       <c r="AB21">
-        <v>0.07214912693803832</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="AC21">
-        <v>-0.07365227639404137</v>
+        <v>-0.08282259296560898</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3080,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>-0.002</v>
+        <v>-2.42</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3089,22 +3086,28 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>-0.0001575051189163648</v>
+        <v>-0.02713612917694551</v>
       </c>
       <c r="AK21">
-        <v>-5.831243804303459e-05</v>
+        <v>-0.08208955223880597</v>
       </c>
       <c r="AL21">
         <v>0.002</v>
       </c>
       <c r="AM21">
-        <v>-0.001</v>
+        <v>-0.271</v>
+      </c>
+      <c r="AN21">
+        <v>-0</v>
       </c>
       <c r="AO21">
-        <v>-31.5</v>
+        <v>-194</v>
+      </c>
+      <c r="AP21">
+        <v>6.269430051813472</v>
       </c>
       <c r="AQ21">
-        <v>63</v>
+        <v>1.431734317343173</v>
       </c>
     </row>
     <row r="22">
@@ -3115,7 +3118,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Info Yatirim Menkul Degerler A.S. (IBSE:INFO)</t>
+          <t>Dagi Yatirim Holding A.S. (IBSE:DAGHL)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3124,28 +3127,25 @@
         </is>
       </c>
       <c r="D22">
-        <v>-0.212</v>
-      </c>
-      <c r="E22">
-        <v>0.07690000000000001</v>
+        <v>0.362</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-0.06133625410733844</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-0.06133625410733844</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-0.09419496166484118</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-0.07020897673161902</v>
       </c>
       <c r="K22">
-        <v>0.385</v>
+        <v>0.281</v>
       </c>
       <c r="L22">
-        <v>0.04166666666666666</v>
+        <v>0.307776560788609</v>
       </c>
       <c r="M22">
         <v>-0</v>
@@ -3169,64 +3169,73 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>10.3</v>
+        <v>0.003</v>
       </c>
       <c r="V22">
-        <v>0.3731884057971014</v>
+        <v>0.0001595744680851064</v>
       </c>
       <c r="W22">
-        <v>0.07196261682242991</v>
+        <v>0.08753894080996885</v>
       </c>
       <c r="X22">
-        <v>0.08175594027336153</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="Y22">
-        <v>-0.009793323450931618</v>
+        <v>0.01913477965409603</v>
       </c>
       <c r="Z22">
-        <v>2.546857772877619</v>
+        <v>0.2845123091305703</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>-0.0199753180916074</v>
       </c>
       <c r="AB22">
-        <v>0.07746129422149901</v>
+        <v>0.06840416115587282</v>
       </c>
       <c r="AC22">
-        <v>-0.07746129422149901</v>
+        <v>-0.08837947924748023</v>
       </c>
       <c r="AD22">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>-3.880000000000001</v>
+        <v>-0.003</v>
       </c>
       <c r="AH22">
-        <v>0.1887125220458554</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>0.513189448441247</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>-0.1635750421585161</v>
+        <v>-0.0001595999361600255</v>
       </c>
       <c r="AK22">
-        <v>-1.755656108597286</v>
+        <v>-0.001124859392575928</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AM22">
-        <v>-0.174</v>
+        <v>-0.029</v>
+      </c>
+      <c r="AN22">
+        <v>-0</v>
+      </c>
+      <c r="AO22">
+        <v>-17.2</v>
+      </c>
+      <c r="AP22">
+        <v>0.03488372093023256</v>
       </c>
       <c r="AQ22">
-        <v>-0</v>
+        <v>2.96551724137931</v>
       </c>
     </row>
     <row r="23">
@@ -3237,7 +3246,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Egeli &amp; Co Enerji Yatirimlari A.S. (IBSE:EGCEY)</t>
+          <t>Atlantis Yatirim Holding A.S. (IBSE:ATSYH)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3245,8 +3254,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="G23">
+        <v>0.07878787878787878</v>
+      </c>
+      <c r="H23">
+        <v>0.07878787878787878</v>
+      </c>
+      <c r="I23">
+        <v>0.003896103896103896</v>
+      </c>
+      <c r="J23">
+        <v>0.003896103896103896</v>
+      </c>
       <c r="K23">
-        <v>-0.22</v>
+        <v>0.046</v>
+      </c>
+      <c r="L23">
+        <v>0.01991341991341991</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -3255,7 +3279,7 @@
         <v>-0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P23">
         <v>-0</v>
@@ -3264,73 +3288,79 @@
         <v>-0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0.003</v>
+        <v>0.025</v>
       </c>
       <c r="V23">
-        <v>0.002290076335877863</v>
+        <v>0.004173622704507512</v>
       </c>
       <c r="W23">
-        <v>-0.05866666666666667</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="X23">
-        <v>0.07214912693803832</v>
+        <v>0.06841101111341899</v>
       </c>
       <c r="Y23">
-        <v>-0.130815793604705</v>
+        <v>0.04323947432347422</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-5.968992248062015</v>
       </c>
       <c r="AA23">
-        <v>-0.005602988260405549</v>
+        <v>-0.02325581395348837</v>
       </c>
       <c r="AB23">
-        <v>0.07214912693803832</v>
+        <v>0.06841209837298613</v>
       </c>
       <c r="AC23">
-        <v>-0.07775211519844387</v>
+        <v>-0.0916679123264745</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG23">
-        <v>-0.003</v>
+        <v>-0.024</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>0.0001669170422300117</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>0.002583979328165375</v>
       </c>
       <c r="AJ23">
-        <v>-0.002295332823259372</v>
+        <v>-0.004022795843110962</v>
       </c>
       <c r="AK23">
-        <v>-0.0007963897000265464</v>
+        <v>-0.06629834254143646</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>-0.016</v>
       </c>
       <c r="AN23">
-        <v>-0</v>
+        <v>0.025</v>
+      </c>
+      <c r="AO23">
+        <v>0.6923076923076923</v>
       </c>
       <c r="AP23">
-        <v>0.1428571428571428</v>
+        <v>-0.6</v>
+      </c>
+      <c r="AQ23">
+        <v>-0.5625</v>
       </c>
     </row>
     <row r="24">
@@ -3341,7 +3371,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Osmanli Yatirim Menkul Degerler A.S. (IBSE:OSMEN)</t>
+          <t>Denge Yatirim Holding A.S. (IBSE:DENGE)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3349,113 +3379,95 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D24">
-        <v>-0.08400000000000001</v>
-      </c>
-      <c r="E24">
-        <v>0.398</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>1.14</v>
-      </c>
-      <c r="L24">
-        <v>0.008636363636363636</v>
+        <v>-0.005</v>
       </c>
       <c r="M24">
-        <v>0.029</v>
+        <v>-0</v>
       </c>
       <c r="N24">
-        <v>0.002071428571428572</v>
+        <v>-0</v>
       </c>
       <c r="O24">
-        <v>0.02543859649122807</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.029</v>
+        <v>-0</v>
       </c>
       <c r="Q24">
-        <v>0.002071428571428572</v>
+        <v>-0</v>
       </c>
       <c r="R24">
-        <v>0.02543859649122807</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
-        <v>3.53</v>
+        <v>0.263</v>
       </c>
       <c r="V24">
-        <v>0.2521428571428571</v>
+        <v>0.007127371273712738</v>
       </c>
       <c r="W24">
-        <v>0.1989528795811518</v>
+        <v>-0.0004132231404958678</v>
       </c>
       <c r="X24">
-        <v>0.08276920896961057</v>
+        <v>0.0685131330279258</v>
       </c>
       <c r="Y24">
-        <v>0.1161836706115412</v>
+        <v>-0.06892635616842167</v>
       </c>
       <c r="Z24">
-        <v>23.11733800350262</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>-0.03514893617021277</v>
       </c>
       <c r="AB24">
-        <v>0.077906983702588</v>
+        <v>0.06850750315374143</v>
       </c>
       <c r="AC24">
-        <v>-0.077906983702588</v>
+        <v>-0.1036564393239542</v>
       </c>
       <c r="AD24">
-        <v>3.6</v>
+        <v>0.098</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>3.6</v>
+        <v>0.098</v>
       </c>
       <c r="AG24">
-        <v>0.07000000000000028</v>
+        <v>-0.165</v>
       </c>
       <c r="AH24">
-        <v>0.2045454545454545</v>
+        <v>0.002648791826585221</v>
       </c>
       <c r="AI24">
-        <v>0.3402646502835539</v>
+        <v>0.02457372116349047</v>
       </c>
       <c r="AJ24">
-        <v>0.004975124378109473</v>
+        <v>-0.00449162923642303</v>
       </c>
       <c r="AK24">
-        <v>0.009929078014184436</v>
+        <v>-0.04429530201342282</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>-2.14</v>
+        <v>-0.831</v>
+      </c>
+      <c r="AN24">
+        <v>-0.1190765492102066</v>
+      </c>
+      <c r="AP24">
+        <v>0.2004860267314703</v>
       </c>
       <c r="AQ24">
-        <v>-0</v>
+        <v>0.9939831528279182</v>
       </c>
     </row>
     <row r="25">
@@ -3466,7 +3478,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gozde Girisim Sermayesi Yatirim Ortakligi A.S. (IBSE:GOZDE)</t>
+          <t>Hub Girisim Sermayesi Yatirim Ortakligi A.S. (IBSE:HUBVC)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3474,26 +3486,29 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D25">
+        <v>-0.632</v>
+      </c>
       <c r="E25">
-        <v>1.164</v>
+        <v>0.394</v>
       </c>
       <c r="G25">
-        <v>-0.4898595943837754</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-0.4898595943837754</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3978159126365054</v>
+        <v>-12.08333333333333</v>
       </c>
       <c r="J25">
-        <v>0.3978159126365054</v>
+        <v>-12.08333333333333</v>
       </c>
       <c r="K25">
-        <v>115.7</v>
+        <v>0.596</v>
       </c>
       <c r="L25">
-        <v>18.04992199687987</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="M25">
         <v>-0</v>
@@ -3517,73 +3532,67 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0.119</v>
+        <v>0.457</v>
       </c>
       <c r="V25">
-        <v>0.0003577871316897173</v>
+        <v>0.006217687074829933</v>
       </c>
       <c r="W25">
-        <v>0.4957155098543273</v>
+        <v>0.07330873308733087</v>
       </c>
       <c r="X25">
-        <v>0.1115123293634723</v>
+        <v>0.06841811736189377</v>
       </c>
       <c r="Y25">
-        <v>0.384203180490855</v>
+        <v>0.0048906157254371</v>
       </c>
       <c r="Z25">
-        <v>0.01348162418868385</v>
+        <v>0.002971032433770735</v>
       </c>
       <c r="AA25">
-        <v>0.005363204630443652</v>
+        <v>-0.03589997524139638</v>
       </c>
       <c r="AB25">
-        <v>0.08443947555461248</v>
+        <v>0.06842032976101595</v>
       </c>
       <c r="AC25">
-        <v>-0.07907627092416883</v>
+        <v>-0.1043203050024123</v>
       </c>
       <c r="AD25">
-        <v>317</v>
+        <v>0.025</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>317</v>
+        <v>0.025</v>
       </c>
       <c r="AG25">
-        <v>316.881</v>
+        <v>-0.432</v>
       </c>
       <c r="AH25">
-        <v>0.4879926108374384</v>
+        <v>0.0003400204012240735</v>
       </c>
       <c r="AI25">
-        <v>0.4653552554315913</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="AJ25">
-        <v>0.4878987991950495</v>
+        <v>-0.005912300870422073</v>
       </c>
       <c r="AK25">
-        <v>0.4652618411026002</v>
+        <v>-0.06199770378874857</v>
       </c>
       <c r="AL25">
-        <v>58.5</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AM25">
-        <v>53.4</v>
-      </c>
-      <c r="AN25">
-        <v>124.3137254901961</v>
+        <v>-0.041</v>
       </c>
       <c r="AO25">
-        <v>0.04358974358974359</v>
-      </c>
-      <c r="AP25">
-        <v>124.2670588235294</v>
+        <v>-32.22222222222222</v>
       </c>
       <c r="AQ25">
-        <v>0.04775280898876404</v>
+        <v>7.073170731707316</v>
       </c>
     </row>
     <row r="26">
@@ -3594,7 +3603,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Marka Yatirim Holding A.S. (IBSE:MARKA)</t>
+          <t>Vakif Menkul Kiymet Yatirim Ortakligi A.S. (IBSE:VKFYO)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3603,25 +3612,25 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.509</v>
+        <v>-0.00487</v>
       </c>
       <c r="G26">
-        <v>0.01237113402061855</v>
+        <v>0.03338658146964856</v>
       </c>
       <c r="H26">
-        <v>0.01237113402061855</v>
+        <v>0.03338658146964856</v>
       </c>
       <c r="I26">
-        <v>-0.01580756013745704</v>
+        <v>-0.008626198083067093</v>
       </c>
       <c r="J26">
-        <v>-0.01580756013745704</v>
+        <v>-0.008626198083067093</v>
       </c>
       <c r="K26">
-        <v>-4.03</v>
+        <v>-0.054</v>
       </c>
       <c r="L26">
-        <v>-1.384879725085911</v>
+        <v>-0.008626198083067093</v>
       </c>
       <c r="M26">
         <v>-0</v>
@@ -3645,73 +3654,73 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0.05</v>
+        <v>2.51</v>
       </c>
       <c r="V26">
-        <v>0.01201923076923077</v>
+        <v>0.08451178451178451</v>
       </c>
       <c r="W26">
-        <v>-0.3415254237288136</v>
+        <v>-0.01651376146788991</v>
       </c>
       <c r="X26">
-        <v>0.07532607455432062</v>
+        <v>0.0684083057261457</v>
       </c>
       <c r="Y26">
-        <v>-0.4168514982831342</v>
+        <v>-0.08492206719403561</v>
       </c>
       <c r="Z26">
-        <v>0.4991423670668953</v>
+        <v>14.42396313364055</v>
       </c>
       <c r="AA26">
-        <v>-0.007890222984562606</v>
+        <v>-0.1244239631336405</v>
       </c>
       <c r="AB26">
-        <v>0.0741598070780398</v>
+        <v>0.06840810164347265</v>
       </c>
       <c r="AC26">
-        <v>-0.08205003006260241</v>
+        <v>-0.1928320647771131</v>
       </c>
       <c r="AD26">
-        <v>0.32</v>
+        <v>0.003</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0.32</v>
+        <v>0.003</v>
       </c>
       <c r="AG26">
-        <v>0.27</v>
+        <v>-2.507</v>
       </c>
       <c r="AH26">
-        <v>0.07142857142857142</v>
+        <v>0.000100999899000101</v>
       </c>
       <c r="AI26">
-        <v>0.02597402597402597</v>
+        <v>0.0008234971177600878</v>
       </c>
       <c r="AJ26">
-        <v>0.06094808126410836</v>
+        <v>-0.09219284374655241</v>
       </c>
       <c r="AK26">
-        <v>0.02200488997555012</v>
+        <v>-2.212709620476609</v>
       </c>
       <c r="AL26">
-        <v>4.25</v>
+        <v>0.001</v>
       </c>
       <c r="AM26">
-        <v>4.217</v>
+        <v>0.001</v>
       </c>
       <c r="AN26">
-        <v>-9.411764705882353</v>
+        <v>-0.05882352941176471</v>
       </c>
       <c r="AO26">
-        <v>-0.01082352941176471</v>
+        <v>-54</v>
       </c>
       <c r="AP26">
-        <v>-7.941176470588236</v>
+        <v>49.15686274509804</v>
       </c>
       <c r="AQ26">
-        <v>-0.01090822859852976</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="27">
@@ -3722,7 +3731,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Metal Gayrimenkul Anonim Sirketi (IBSE:METAL)</t>
+          <t>Arti Yatirim Holding A.S. (IBSE:ARTI)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3730,23 +3739,11 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G27">
-        <v>-1.822222222222222</v>
-      </c>
-      <c r="H27">
-        <v>-1.822222222222222</v>
-      </c>
-      <c r="I27">
-        <v>-1.755555555555556</v>
-      </c>
-      <c r="J27">
-        <v>-1.755555555555556</v>
+      <c r="D27">
+        <v>-0.868</v>
       </c>
       <c r="K27">
-        <v>-0.042</v>
-      </c>
-      <c r="L27">
-        <v>-0.9333333333333335</v>
+        <v>-0.839</v>
       </c>
       <c r="M27">
         <v>-0</v>
@@ -3770,665 +3767,70 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0.02091503267973856</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>-0.01875</v>
+        <v>-0.4687150837988827</v>
       </c>
       <c r="X27">
-        <v>0.07214912693803832</v>
+        <v>0.07035327666871359</v>
       </c>
       <c r="Y27">
-        <v>-0.09089912693803832</v>
+        <v>-0.5390683604675962</v>
       </c>
       <c r="Z27">
-        <v>0.02091078066914498</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-0.03671003717472119</v>
+        <v>-0.8920513710517181</v>
       </c>
       <c r="AB27">
-        <v>0.07214912693803832</v>
+        <v>0.07056058982306818</v>
       </c>
       <c r="AC27">
-        <v>-0.1088591641127595</v>
+        <v>-0.9626119608747863</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>0.371</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>0.371</v>
       </c>
       <c r="AG27">
-        <v>-0.032</v>
+        <v>0.371</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>0.04534897934237869</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>0.526241134751773</v>
       </c>
       <c r="AJ27">
-        <v>-0.02136181575433912</v>
+        <v>0.04534897934237869</v>
       </c>
       <c r="AK27">
-        <v>-0.01386481802426343</v>
+        <v>0.526241134751773</v>
       </c>
       <c r="AL27">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>-0.037</v>
+        <v>-0.536</v>
       </c>
       <c r="AN27">
-        <v>-0</v>
-      </c>
-      <c r="AO27">
-        <v>-26.33333333333333</v>
+        <v>-0.1495967741935484</v>
       </c>
       <c r="AP27">
-        <v>0.4102564102564102</v>
+        <v>-0.1495967741935484</v>
       </c>
       <c r="AQ27">
-        <v>2.135135135135135</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Kapital Yatirim Holding AS (IBSE:KPHOL)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="E28">
-        <v>0.321</v>
-      </c>
-      <c r="K28">
-        <v>0.243</v>
-      </c>
-      <c r="M28">
-        <v>-0</v>
-      </c>
-      <c r="N28">
-        <v>-0</v>
-      </c>
-      <c r="O28">
-        <v>-0</v>
-      </c>
-      <c r="P28">
-        <v>-0</v>
-      </c>
-      <c r="Q28">
-        <v>-0</v>
-      </c>
-      <c r="R28">
-        <v>-0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0.001</v>
-      </c>
-      <c r="V28">
-        <v>0.0005780346820809249</v>
-      </c>
-      <c r="W28">
-        <v>0.261853448275862</v>
-      </c>
-      <c r="X28">
-        <v>0.07214912693803832</v>
-      </c>
-      <c r="Y28">
-        <v>0.1897043213378237</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>-0.06151477832512315</v>
-      </c>
-      <c r="AB28">
-        <v>0.07214912693803832</v>
-      </c>
-      <c r="AC28">
-        <v>-0.1336639052631615</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>-0.001</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>-0.000578368999421631</v>
-      </c>
-      <c r="AK28">
-        <v>-0.0008136696501220504</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>-0.389</v>
-      </c>
-      <c r="AQ28">
-        <v>0.1902313624678663</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Salix Yatirim Holding A.S. (IBSE:SALIX)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="K29">
-        <v>-0.089</v>
-      </c>
-      <c r="M29">
-        <v>-0</v>
-      </c>
-      <c r="N29">
-        <v>-0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>-0</v>
-      </c>
-      <c r="Q29">
-        <v>-0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0.051</v>
-      </c>
-      <c r="V29">
-        <v>0.008415841584158416</v>
-      </c>
-      <c r="W29">
-        <v>-0.1299270072992701</v>
-      </c>
-      <c r="X29">
-        <v>0.07216957264051933</v>
-      </c>
-      <c r="Y29">
-        <v>-0.2020965799397894</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>-0.1244094488188976</v>
-      </c>
-      <c r="AB29">
-        <v>0.07216305544964643</v>
-      </c>
-      <c r="AC29">
-        <v>-0.1965725042685441</v>
-      </c>
-      <c r="AD29">
-        <v>0.003</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0.003</v>
-      </c>
-      <c r="AG29">
-        <v>-0.04799999999999999</v>
-      </c>
-      <c r="AH29">
-        <v>0.0004948045522018803</v>
-      </c>
-      <c r="AI29">
-        <v>0.004622496147919876</v>
-      </c>
-      <c r="AJ29">
-        <v>-0.007984031936127744</v>
-      </c>
-      <c r="AK29">
-        <v>-0.08026755852842808</v>
-      </c>
-      <c r="AL29">
-        <v>0.003</v>
-      </c>
-      <c r="AM29">
-        <v>-0.03</v>
-      </c>
-      <c r="AN29">
-        <v>-0.03896103896103896</v>
-      </c>
-      <c r="AO29">
-        <v>-26.33333333333333</v>
-      </c>
-      <c r="AP29">
-        <v>0.6233766233766234</v>
-      </c>
-      <c r="AQ29">
-        <v>2.633333333333333</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Denge Yatirim Holding A.S. (IBSE:DENGE)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>-0.551</v>
-      </c>
-      <c r="G30">
-        <v>24.66666666666667</v>
-      </c>
-      <c r="H30">
-        <v>24.66666666666667</v>
-      </c>
-      <c r="I30">
-        <v>-67.77777777777779</v>
-      </c>
-      <c r="J30">
-        <v>-67.77777777777779</v>
-      </c>
-      <c r="K30">
-        <v>-2.32</v>
-      </c>
-      <c r="L30">
-        <v>-64.44444444444444</v>
-      </c>
-      <c r="M30">
-        <v>-0</v>
-      </c>
-      <c r="N30">
-        <v>-0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>-0</v>
-      </c>
-      <c r="Q30">
-        <v>-0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0.35</v>
-      </c>
-      <c r="V30">
-        <v>0.03043478260869565</v>
-      </c>
-      <c r="W30">
-        <v>-0.1589041095890411</v>
-      </c>
-      <c r="X30">
-        <v>0.07214912693803832</v>
-      </c>
-      <c r="Y30">
-        <v>-0.2310532365270794</v>
-      </c>
-      <c r="Z30">
-        <v>0.002528089887640449</v>
-      </c>
-      <c r="AA30">
-        <v>-0.1713483146067416</v>
-      </c>
-      <c r="AB30">
-        <v>0.07214912693803832</v>
-      </c>
-      <c r="AC30">
-        <v>-0.2434974415447799</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>-0.35</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>-0.03139013452914798</v>
-      </c>
-      <c r="AK30">
-        <v>-0.02978723404255319</v>
-      </c>
-      <c r="AL30">
-        <v>0.043</v>
-      </c>
-      <c r="AM30">
-        <v>-1.057</v>
-      </c>
-      <c r="AN30">
-        <v>-0</v>
-      </c>
-      <c r="AO30">
-        <v>-56.74418604651163</v>
-      </c>
-      <c r="AP30">
-        <v>0.1440329218106996</v>
-      </c>
-      <c r="AQ30">
-        <v>2.308420056764427</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Hedef Girisim Sermayesi Yatirim Ortakligi A.S. (IBSE:HDFGS)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G31">
-        <v>-0.05076923076923077</v>
-      </c>
-      <c r="H31">
-        <v>-0.05076923076923077</v>
-      </c>
-      <c r="I31">
-        <v>1.825641025641026</v>
-      </c>
-      <c r="J31">
-        <v>1.825641025641026</v>
-      </c>
-      <c r="K31">
-        <v>-2.78</v>
-      </c>
-      <c r="L31">
-        <v>1.425641025641026</v>
-      </c>
-      <c r="M31">
-        <v>-0</v>
-      </c>
-      <c r="N31">
-        <v>-0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>-0</v>
-      </c>
-      <c r="Q31">
-        <v>-0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>2.85</v>
-      </c>
-      <c r="V31">
-        <v>0.101423487544484</v>
-      </c>
-      <c r="W31">
-        <v>-0.1716049382716049</v>
-      </c>
-      <c r="X31">
-        <v>0.07214912693803832</v>
-      </c>
-      <c r="Y31">
-        <v>-0.2437540652096433</v>
-      </c>
-      <c r="Z31">
-        <v>-0.1205266085666605</v>
-      </c>
-      <c r="AA31">
-        <v>-0.2200383212806725</v>
-      </c>
-      <c r="AB31">
-        <v>0.07214912693803832</v>
-      </c>
-      <c r="AC31">
-        <v>-0.2921874482187108</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>-2.85</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>-0.1128712871287129</v>
-      </c>
-      <c r="AK31">
-        <v>-0.1642651296829971</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>-0.8110000000000001</v>
-      </c>
-      <c r="AN31">
-        <v>-0</v>
-      </c>
-      <c r="AP31">
-        <v>0.8073654390934845</v>
-      </c>
-      <c r="AQ31">
-        <v>4.38964241676942</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Atlantis Yatirim Holding A.S. (IBSE:ATSYH)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>-0.102</v>
-      </c>
-      <c r="G32">
-        <v>0.06190476190476191</v>
-      </c>
-      <c r="H32">
-        <v>0.06190476190476191</v>
-      </c>
-      <c r="I32">
-        <v>0.07936507936507937</v>
-      </c>
-      <c r="J32">
-        <v>0.07936507936507937</v>
-      </c>
-      <c r="K32">
-        <v>0.044</v>
-      </c>
-      <c r="L32">
-        <v>0.03492063492063492</v>
-      </c>
-      <c r="M32">
-        <v>-0</v>
-      </c>
-      <c r="N32">
-        <v>-0</v>
-      </c>
-      <c r="O32">
-        <v>-0</v>
-      </c>
-      <c r="P32">
-        <v>-0</v>
-      </c>
-      <c r="Q32">
-        <v>-0</v>
-      </c>
-      <c r="R32">
-        <v>-0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0.001</v>
-      </c>
-      <c r="V32">
-        <v>0.0007462686567164179</v>
-      </c>
-      <c r="W32">
-        <v>0.1125319693094629</v>
-      </c>
-      <c r="X32">
-        <v>0.07486138669402857</v>
-      </c>
-      <c r="Y32">
-        <v>0.03767058261543434</v>
-      </c>
-      <c r="Z32">
-        <v>-3.014354066985646</v>
-      </c>
-      <c r="AA32">
-        <v>-0.2392344497607656</v>
-      </c>
-      <c r="AB32">
-        <v>0.076465041456583</v>
-      </c>
-      <c r="AC32">
-        <v>-0.3156994912173486</v>
-      </c>
-      <c r="AD32">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="AG32">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="AH32">
-        <v>0.06162464985994397</v>
-      </c>
-      <c r="AI32">
-        <v>0.1471571906354515</v>
-      </c>
-      <c r="AJ32">
-        <v>0.06096706377014716</v>
-      </c>
-      <c r="AK32">
-        <v>0.1457286432160804</v>
-      </c>
-      <c r="AL32">
-        <v>0.008</v>
-      </c>
-      <c r="AM32">
-        <v>-0.208</v>
-      </c>
-      <c r="AN32">
-        <v>0.619718309859155</v>
-      </c>
-      <c r="AO32">
-        <v>12.5</v>
-      </c>
-      <c r="AP32">
-        <v>0.6126760563380281</v>
-      </c>
-      <c r="AQ32">
-        <v>-0.4807692307692308</v>
+        <v>4.794776119402984</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/traditional_assets/database/data/turkey/turkey_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_investments_asset_management.xlsx
@@ -648,10 +648,10 @@
         <v>0.1116504854368932</v>
       </c>
       <c r="X2">
-        <v>0.06844271544973414</v>
+        <v>0.06458317429431877</v>
       </c>
       <c r="Y2">
-        <v>0.04320776998715907</v>
+        <v>0.04706731114257444</v>
       </c>
       <c r="Z2">
         <v>1.341315004038734</v>
@@ -660,10 +660,10 @@
         <v>0.008430804863925882</v>
       </c>
       <c r="AB2">
-        <v>0.06843772558521713</v>
+        <v>0.064577048110998</v>
       </c>
       <c r="AC2">
-        <v>-0.06747203308204051</v>
+        <v>-0.06361135560782138</v>
       </c>
       <c r="AD2">
         <v>348.365</v>
@@ -782,10 +782,10 @@
         <v>0.747086247086247</v>
       </c>
       <c r="X3">
-        <v>0.0812089007028354</v>
+        <v>0.07798968720672064</v>
       </c>
       <c r="Y3">
-        <v>0.6658773463834117</v>
+        <v>0.6690965598795264</v>
       </c>
       <c r="Z3">
         <v>15.75049080849545</v>
@@ -794,10 +794,10 @@
         <v>1.135510876648307</v>
       </c>
       <c r="AB3">
-        <v>0.07971424080596716</v>
+        <v>0.07605482288097691</v>
       </c>
       <c r="AC3">
-        <v>1.05579663584234</v>
+        <v>1.05945605376733</v>
       </c>
       <c r="AD3">
         <v>13.7</v>
@@ -913,10 +913,10 @@
         <v>0.7128712871287129</v>
       </c>
       <c r="X4">
-        <v>0.06847828885166957</v>
+        <v>0.06462053199068069</v>
       </c>
       <c r="Y4">
-        <v>0.6443929982770433</v>
+        <v>0.6482507551380323</v>
       </c>
       <c r="Z4">
         <v>0.8530259365994238</v>
@@ -925,10 +925,10 @@
         <v>0.8184438040345822</v>
       </c>
       <c r="AB4">
-        <v>0.06846863907384651</v>
+        <v>0.06460869610473566</v>
       </c>
       <c r="AC4">
-        <v>0.7499751649607357</v>
+        <v>0.7538351079298465</v>
       </c>
       <c r="AD4">
         <v>0.142</v>
@@ -1047,10 +1047,10 @@
         <v>0.1795955882352941</v>
       </c>
       <c r="X5">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y5">
-        <v>0.1111914270794213</v>
+        <v>0.1150529020451531</v>
       </c>
       <c r="Z5">
         <v>77.64705882352939</v>
@@ -1059,10 +1059,10 @@
         <v>0.4420814479638008</v>
       </c>
       <c r="AB5">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC5">
-        <v>0.373677286807928</v>
+        <v>0.3775387617736599</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0.1722522522522522</v>
       </c>
       <c r="X6">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y6">
-        <v>0.1038480910963794</v>
+        <v>0.1077095660621113</v>
       </c>
       <c r="Z6">
         <v>74.73913043478262</v>
@@ -1187,10 +1187,10 @@
         <v>0.4230434782608696</v>
       </c>
       <c r="AB6">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC6">
-        <v>0.3546393171049967</v>
+        <v>0.3585007920707286</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0.1444816053511706</v>
       </c>
       <c r="X7">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y7">
-        <v>0.07607744419529773</v>
+        <v>0.07993891916102956</v>
       </c>
       <c r="Z7">
         <v>79.3162393162393</v>
@@ -1315,10 +1315,10 @@
         <v>0.3692307692307692</v>
       </c>
       <c r="AB7">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC7">
-        <v>0.3008266080748964</v>
+        <v>0.3046880830406282</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0.1391585760517799</v>
       </c>
       <c r="X8">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y8">
-        <v>0.07075441489590713</v>
+        <v>0.07461588986163896</v>
       </c>
       <c r="Z8">
         <v>10.70821529745043</v>
@@ -1443,10 +1443,10 @@
         <v>0.3654390934844193</v>
       </c>
       <c r="AB8">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC8">
-        <v>0.2970349323285465</v>
+        <v>0.3008964072942784</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0.1354581673306773</v>
       </c>
       <c r="X9">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y9">
-        <v>0.06705400617480446</v>
+        <v>0.07091548114053629</v>
       </c>
       <c r="Z9">
         <v>9.705882352941176</v>
@@ -1568,10 +1568,10 @@
         <v>0.2780748663101604</v>
       </c>
       <c r="AB9">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC9">
-        <v>0.2096707051542876</v>
+        <v>0.2135321801200195</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0.1038910505836576</v>
       </c>
       <c r="X10">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y10">
-        <v>0.03548688942778477</v>
+        <v>0.0393483643935166</v>
       </c>
       <c r="Z10">
         <v>3.961538461538463</v>
@@ -1696,10 +1696,10 @@
         <v>0.2053846153846154</v>
       </c>
       <c r="AB10">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC10">
-        <v>0.1369804542287426</v>
+        <v>0.1408419291944744</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0.08592750533049041</v>
       </c>
       <c r="X11">
-        <v>0.06845430446533729</v>
+        <v>0.06459534459298241</v>
       </c>
       <c r="Y11">
-        <v>0.01747320086515312</v>
+        <v>0.021332160737508</v>
       </c>
       <c r="Z11">
         <v>0.7133110035975685</v>
@@ -1818,10 +1818,10 @@
         <v>0.1256047636769632</v>
       </c>
       <c r="AB11">
-        <v>0.06844780238536256</v>
+        <v>0.06458736433611648</v>
       </c>
       <c r="AC11">
-        <v>0.0571569612916006</v>
+        <v>0.06101739934084668</v>
       </c>
       <c r="AD11">
         <v>0.093</v>
@@ -1934,10 +1934,10 @@
         <v>0.07074999999999999</v>
       </c>
       <c r="X12">
-        <v>0.06880545575669048</v>
+        <v>0.06496410896764865</v>
       </c>
       <c r="Y12">
-        <v>0.001944544243309518</v>
+        <v>0.005785891032351345</v>
       </c>
       <c r="Z12">
         <v>0.1798941798941799</v>
@@ -1946,10 +1946,10 @@
         <v>0.1133474117392246</v>
       </c>
       <c r="AB12">
-        <v>0.06878203843605663</v>
+        <v>0.06492879153429576</v>
       </c>
       <c r="AC12">
-        <v>0.04456537330316798</v>
+        <v>0.04841862020492885</v>
       </c>
       <c r="AD12">
         <v>0.178</v>
@@ -2068,10 +2068,10 @@
         <v>0.01824611032531825</v>
       </c>
       <c r="X13">
-        <v>0.06881950812156366</v>
+        <v>0.06497886617251346</v>
       </c>
       <c r="Y13">
-        <v>-0.05057339779624542</v>
+        <v>-0.04673275584719521</v>
       </c>
       <c r="Z13">
         <v>1.798688193743693</v>
@@ -2080,10 +2080,10 @@
         <v>0.03809283551967709</v>
       </c>
       <c r="AB13">
-        <v>0.06876246487131653</v>
+        <v>0.06490950320903179</v>
       </c>
       <c r="AC13">
-        <v>-0.03066962935163944</v>
+        <v>-0.02681666768935469</v>
       </c>
       <c r="AD13">
         <v>0.165</v>
@@ -2202,10 +2202,10 @@
         <v>0.173828125</v>
       </c>
       <c r="X14">
-        <v>0.0695334614962833</v>
+        <v>0.06572863009550732</v>
       </c>
       <c r="Y14">
-        <v>0.1042946635037167</v>
+        <v>0.1080994949044927</v>
       </c>
       <c r="Z14">
         <v>0.1238813826987191</v>
@@ -2214,10 +2214,10 @@
         <v>0.02765870442564294</v>
       </c>
       <c r="AB14">
-        <v>0.06936186743424631</v>
+        <v>0.06552314758884827</v>
       </c>
       <c r="AC14">
-        <v>-0.04170316300860337</v>
+        <v>-0.03786444316320532</v>
       </c>
       <c r="AD14">
         <v>11.7</v>
@@ -2333,10 +2333,10 @@
         <v>0.001252653927813163</v>
       </c>
       <c r="X15">
-        <v>0.06844271544973414</v>
+        <v>0.06458317429431877</v>
       </c>
       <c r="Y15">
-        <v>-0.06719006152192097</v>
+        <v>-0.0633305203665056</v>
       </c>
       <c r="Z15">
         <v>0.1123252858958069</v>
@@ -2345,10 +2345,10 @@
         <v>0.00096569250317662</v>
       </c>
       <c r="AB15">
-        <v>0.06843772558521713</v>
+        <v>0.064577048110998</v>
       </c>
       <c r="AC15">
-        <v>-0.06747203308204051</v>
+        <v>-0.06361135560782138</v>
       </c>
       <c r="AD15">
         <v>0.179</v>
@@ -2461,10 +2461,10 @@
         <v>0.7779369627507162</v>
       </c>
       <c r="X16">
-        <v>0.06900449739890682</v>
+        <v>0.06517313416143791</v>
       </c>
       <c r="Y16">
-        <v>0.7089324653518094</v>
+        <v>0.7127638285892783</v>
       </c>
       <c r="Z16">
         <v>43.99999999999999</v>
@@ -2473,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.0689197467231281</v>
+        <v>0.06507052208078896</v>
       </c>
       <c r="AC16">
-        <v>-0.0689197467231281</v>
+        <v>-0.06507052208078896</v>
       </c>
       <c r="AD16">
         <v>1.21</v>
@@ -2562,10 +2562,10 @@
         <v>0.1932944606413994</v>
       </c>
       <c r="X17">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y17">
-        <v>0.1248902994855266</v>
+        <v>0.1287517744512585</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>-0.001413866865572211</v>
       </c>
       <c r="AB17">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC17">
-        <v>-0.06981802802144503</v>
+        <v>-0.0659565530557132</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0.04705882352941176</v>
       </c>
       <c r="X18">
-        <v>0.09120589538077445</v>
+        <v>0.08848811219255928</v>
       </c>
       <c r="Y18">
-        <v>-0.04414707185136268</v>
+        <v>-0.04142928866314752</v>
       </c>
       <c r="Z18">
         <v>0.02547770700636942</v>
@@ -2696,10 +2696,10 @@
         <v>0.008430804863925882</v>
       </c>
       <c r="AB18">
-        <v>0.08117595390634957</v>
+        <v>0.07761793699187824</v>
       </c>
       <c r="AC18">
-        <v>-0.07274514904242368</v>
+        <v>-0.06918713212795236</v>
       </c>
       <c r="AD18">
         <v>38.4</v>
@@ -2815,10 +2815,10 @@
         <v>0.6912972085385879</v>
       </c>
       <c r="X19">
-        <v>0.08025553361973561</v>
+        <v>0.07698850103744342</v>
       </c>
       <c r="Y19">
-        <v>0.6110416749188523</v>
+        <v>0.6143087075011444</v>
       </c>
       <c r="Z19">
         <v>101.6742081447964</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.07714764928016919</v>
+        <v>0.07347655882122998</v>
       </c>
       <c r="AC19">
-        <v>-0.07714764928016919</v>
+        <v>-0.07347655882122998</v>
       </c>
       <c r="AD19">
         <v>25.1</v>
@@ -2934,10 +2934,10 @@
         <v>0.02965403624382208</v>
       </c>
       <c r="X20">
-        <v>0.09389371915758002</v>
+        <v>0.09131075211635725</v>
       </c>
       <c r="Y20">
-        <v>-0.06423968291375794</v>
+        <v>-0.06165671587253517</v>
       </c>
       <c r="Z20">
         <v>0.01585714474489818</v>
@@ -2946,10 +2946,10 @@
         <v>0.001224523955300471</v>
       </c>
       <c r="AB20">
-        <v>0.08210458236590357</v>
+        <v>0.07856862968220912</v>
       </c>
       <c r="AC20">
-        <v>-0.0808800584106031</v>
+        <v>-0.07734410572690865</v>
       </c>
       <c r="AD20">
         <v>257</v>
@@ -3050,10 +3050,10 @@
         <v>0.3885135135135135</v>
       </c>
       <c r="X21">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y21">
-        <v>0.3201093523576407</v>
+        <v>0.3239708273233725</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3062,10 +3062,10 @@
         <v>-0.01441843180973616</v>
       </c>
       <c r="AB21">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC21">
-        <v>-0.08282259296560898</v>
+        <v>-0.07896111799987715</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3178,10 +3178,10 @@
         <v>0.08753894080996885</v>
       </c>
       <c r="X22">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y22">
-        <v>0.01913477965409603</v>
+        <v>0.02299625461982786</v>
       </c>
       <c r="Z22">
         <v>0.2845123091305703</v>
@@ -3190,10 +3190,10 @@
         <v>-0.0199753180916074</v>
       </c>
       <c r="AB22">
-        <v>0.06840416115587282</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC22">
-        <v>-0.08837947924748023</v>
+        <v>-0.0845180042817484</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -3303,10 +3303,10 @@
         <v>0.1116504854368932</v>
       </c>
       <c r="X23">
-        <v>0.06841101111341899</v>
+        <v>0.06454987972857643</v>
       </c>
       <c r="Y23">
-        <v>0.04323947432347422</v>
+        <v>0.04710060570831678</v>
       </c>
       <c r="Z23">
         <v>-5.968992248062015</v>
@@ -3315,10 +3315,10 @@
         <v>-0.02325581395348837</v>
       </c>
       <c r="AB23">
-        <v>0.06841209837298613</v>
+        <v>0.0645507652073699</v>
       </c>
       <c r="AC23">
-        <v>-0.0916679123264745</v>
+        <v>-0.08780657916085827</v>
       </c>
       <c r="AD23">
         <v>0.001</v>
@@ -3413,10 +3413,10 @@
         <v>-0.0004132231404958678</v>
       </c>
       <c r="X24">
-        <v>0.0685131330279258</v>
+        <v>0.06465712388478528</v>
       </c>
       <c r="Y24">
-        <v>-0.06892635616842167</v>
+        <v>-0.06507034702528115</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3425,10 +3425,10 @@
         <v>-0.03514893617021277</v>
       </c>
       <c r="AB24">
-        <v>0.06850750315374143</v>
+        <v>0.06464827840154172</v>
       </c>
       <c r="AC24">
-        <v>-0.1036564393239542</v>
+        <v>-0.09979721457175449</v>
       </c>
       <c r="AD24">
         <v>0.098</v>
@@ -3541,10 +3541,10 @@
         <v>0.07330873308733087</v>
       </c>
       <c r="X25">
-        <v>0.06841811736189377</v>
+        <v>0.06455734241300776</v>
       </c>
       <c r="Y25">
-        <v>0.0048906157254371</v>
+        <v>0.008751390674323109</v>
       </c>
       <c r="Z25">
         <v>0.002971032433770735</v>
@@ -3553,10 +3553,10 @@
         <v>-0.03589997524139638</v>
       </c>
       <c r="AB25">
-        <v>0.06842032976101595</v>
+        <v>0.0645591436509429</v>
       </c>
       <c r="AC25">
-        <v>-0.1043203050024123</v>
+        <v>-0.1004591188923393</v>
       </c>
       <c r="AD25">
         <v>0.025</v>
@@ -3663,10 +3663,10 @@
         <v>-0.01651376146788991</v>
       </c>
       <c r="X26">
-        <v>0.0684083057261457</v>
+        <v>0.06454703864420445</v>
       </c>
       <c r="Y26">
-        <v>-0.08492206719403561</v>
+        <v>-0.08106080011209436</v>
       </c>
       <c r="Z26">
         <v>14.42396313364055</v>
@@ -3675,10 +3675,10 @@
         <v>-0.1244239631336405</v>
       </c>
       <c r="AB26">
-        <v>0.06840810164347265</v>
+        <v>0.06454671247962875</v>
       </c>
       <c r="AC26">
-        <v>-0.1928320647771131</v>
+        <v>-0.1889706756132692</v>
       </c>
       <c r="AD26">
         <v>0.003</v>
@@ -3776,10 +3776,10 @@
         <v>-0.4687150837988827</v>
       </c>
       <c r="X27">
-        <v>0.07035327666871359</v>
+        <v>0.066589565643368</v>
       </c>
       <c r="Y27">
-        <v>-0.5390683604675962</v>
+        <v>-0.5353046494422506</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>-0.8920513710517181</v>
       </c>
       <c r="AB27">
-        <v>0.07056058982306818</v>
+        <v>0.0667376399259958</v>
       </c>
       <c r="AC27">
-        <v>-0.9626119608747863</v>
+        <v>-0.9587890109777139</v>
       </c>
       <c r="AD27">
         <v>0.371</v>
